--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930tangsuiCellVedio22024-12-04210940trace/processed_No.29790930tangsuiCellVedio22024-12-04210940trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930tangsuiCellVedio22024-12-04210940trace/processed_No.29790930tangsuiCellVedio22024-12-04210940trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:X95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>201</v>
+        <v>419</v>
       </c>
       <c r="B2" t="n">
-        <v>255</v>
+        <v>519</v>
       </c>
       <c r="C2" t="n">
-        <v>340</v>
+        <v>656</v>
       </c>
       <c r="D2" t="n">
-        <v>3.511167883432388</v>
+        <v>4.095912480674897</v>
       </c>
       <c r="E2" t="n">
-        <v>2.942070729040397</v>
+        <v>3.492577499685024</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5690971543919904</v>
+        <v>-0.603334980989873</v>
       </c>
       <c r="G2" t="n">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="H2" t="n">
-        <v>66.13428300023608</v>
+        <v>135.4765084344151</v>
       </c>
       <c r="I2" t="n">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="J2" t="n">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="K2" t="n">
-        <v>299.8979065169955</v>
+        <v>535.6099118233029</v>
       </c>
       <c r="L2" t="n">
-        <v>29.02097463595156</v>
+        <v>11.00174514471378</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,24 +606,24 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.8273626852064586</v>
+        <v>0.6793433671171534</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6352941176470588</v>
+        <v>0.7299270072992701</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3991723978802735</v>
+        <v>0.121047111269555</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9929490636705758</v>
+        <v>0.9112756885418437</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>649</v>
+        <v>1268</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>527</v>
+        <v>200</v>
       </c>
       <c r="B3" t="n">
-        <v>571</v>
+        <v>250</v>
       </c>
       <c r="C3" t="n">
-        <v>668</v>
+        <v>346</v>
       </c>
       <c r="D3" t="n">
-        <v>3.803179475405968</v>
+        <v>3.52718246498408</v>
       </c>
       <c r="E3" t="n">
-        <v>3.234082321013977</v>
+        <v>2.965463517486017</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5690971543919904</v>
+        <v>-0.5617189474980633</v>
       </c>
       <c r="G3" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H3" t="n">
-        <v>211.5481819614441</v>
+        <v>66.08341770920359</v>
       </c>
       <c r="I3" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K3" t="n">
-        <v>414.8128819466077</v>
+        <v>307.0769100934693</v>
       </c>
       <c r="L3" t="n">
-        <v>31.43454792136928</v>
+        <v>29.03443556873617</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.6646815103569484</v>
+        <v>0.8680758818721204</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4536082474226804</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05173913396203093</v>
+        <v>0.5603571607419251</v>
       </c>
       <c r="S3" t="n">
-        <v>0.910644083492118</v>
+        <v>0.9916929211101294</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>650</v>
+        <v>1269</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2096</v>
+        <v>346</v>
       </c>
       <c r="B4" t="n">
-        <v>2131</v>
+        <v>376</v>
       </c>
       <c r="C4" t="n">
-        <v>2261</v>
+        <v>435</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6944306607763281</v>
+        <v>2.471070630275166</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2048749696480594</v>
+        <v>1.909351682777103</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4895556911282687</v>
+        <v>-0.5617189474980633</v>
       </c>
       <c r="G4" t="n">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="H4" t="n">
-        <v>81.74055663972558</v>
+        <v>34.43888505307876</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J4" t="n">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="K4" t="n">
-        <v>56.09857118145846</v>
+        <v>158.4507372269213</v>
       </c>
       <c r="L4" t="n">
-        <v>4.707542067388668</v>
+        <v>20.34092131971529</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.8912646515994147</v>
+        <v>0.7618415471289208</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1774985607594807</v>
+        <v>0.0732041619372938</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8575604492004194</v>
+        <v>0.9955003307694528</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>651</v>
+        <v>1270</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2408</v>
+        <v>485</v>
       </c>
       <c r="B5" t="n">
-        <v>2454</v>
+        <v>502</v>
       </c>
       <c r="C5" t="n">
-        <v>2517</v>
+        <v>533</v>
       </c>
       <c r="D5" t="n">
-        <v>1.196844665625796</v>
+        <v>3.011603316660012</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7072889744975271</v>
+        <v>2.449884369161949</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4895556911282687</v>
+        <v>-0.5617189474980633</v>
       </c>
       <c r="G5" t="n">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="H5" t="n">
-        <v>41.5755312428978</v>
+        <v>16.71393298991416</v>
       </c>
       <c r="I5" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J5" t="n">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="K5" t="n">
-        <v>68.53764565547765</v>
+        <v>131.2824547575255</v>
       </c>
       <c r="L5" t="n">
-        <v>8.113404159408073</v>
+        <v>24.79038250054125</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.8192740651914242</v>
+        <v>0.7515892950824415</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7301587301587301</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2135705867566067</v>
+        <v>0.1037140325460224</v>
       </c>
       <c r="S5" t="n">
-        <v>0.966912282566555</v>
+        <v>0.9551334325344272</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>652</v>
+        <v>1271</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>841</v>
+        <v>533</v>
       </c>
       <c r="B6" t="n">
-        <v>866</v>
+        <v>567</v>
       </c>
       <c r="C6" t="n">
-        <v>948</v>
+        <v>668</v>
       </c>
       <c r="D6" t="n">
-        <v>1.474097654291385</v>
+        <v>3.75466492515108</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8782112973414704</v>
+        <v>3.192945977653017</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5958863569499145</v>
+        <v>-0.5617189474980633</v>
       </c>
       <c r="G6" t="n">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="H6" t="n">
-        <v>30.21232647391946</v>
+        <v>211.3367458467291</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J6" t="n">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="K6" t="n">
-        <v>80.47505889532607</v>
+        <v>399.0232749275229</v>
       </c>
       <c r="L6" t="n">
-        <v>7.3166850363699</v>
+        <v>30.90698537252586</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.9275803685704177</v>
+        <v>0.7126846041449392</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3048780487804878</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4762082371793679</v>
+        <v>0.05764617364623176</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9544812370097572</v>
+        <v>0.8704667953559806</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>653</v>
+        <v>1272</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2519</v>
+        <v>1251</v>
       </c>
       <c r="B7" t="n">
-        <v>2569</v>
+        <v>1286</v>
       </c>
       <c r="C7" t="n">
-        <v>2649</v>
+        <v>1449</v>
       </c>
       <c r="D7" t="n">
-        <v>3.562923509002593</v>
+        <v>0.4390568973490026</v>
       </c>
       <c r="E7" t="n">
-        <v>3.120444559305388</v>
+        <v>-0.1226620501490607</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4424789496972051</v>
+        <v>-0.5617189474980633</v>
       </c>
       <c r="G7" t="n">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="H7" t="n">
-        <v>52.93832422005698</v>
+        <v>51.25560917998405</v>
       </c>
       <c r="I7" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J7" t="n">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="K7" t="n">
-        <v>267.043066373512</v>
+        <v>44.32656803484365</v>
       </c>
       <c r="L7" t="n">
-        <v>10.82562831533924</v>
+        <v>3.614150763007483</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.8490779413153083</v>
+        <v>0.8662144428580062</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.625</v>
+        <v>0.2147239263803681</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2221442753898652</v>
+        <v>0.2562755148222408</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9894841082500109</v>
+        <v>0.8243181850118385</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>654</v>
+        <v>1273</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2046</v>
+        <v>1449</v>
       </c>
       <c r="B8" t="n">
-        <v>2079</v>
+        <v>1483</v>
       </c>
       <c r="C8" t="n">
-        <v>2156</v>
+        <v>1559</v>
       </c>
       <c r="D8" t="n">
-        <v>2.102998074661187</v>
+        <v>0.434235511928483</v>
       </c>
       <c r="E8" t="n">
-        <v>1.477846292232907</v>
+        <v>-0.1274834355695803</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6251517824282803</v>
+        <v>-0.5617189474980633</v>
       </c>
       <c r="G8" t="n">
         <v>110</v>
       </c>
       <c r="H8" t="n">
-        <v>28.30040948221585</v>
+        <v>39.22288167861166</v>
       </c>
       <c r="I8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J8" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8" t="n">
-        <v>118.068972708928</v>
+        <v>27.6379802790917</v>
       </c>
       <c r="L8" t="n">
-        <v>5.926777344898549</v>
+        <v>3.574462936893062</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.8532758312980263</v>
+        <v>0.8844910588108837</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4432036863166023</v>
+        <v>0.2267164644196026</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9406375255650932</v>
+        <v>0.8944469380048159</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>655</v>
+        <v>1274</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2223</v>
+        <v>2413</v>
       </c>
       <c r="B9" t="n">
-        <v>2253</v>
+        <v>2457</v>
       </c>
       <c r="C9" t="n">
-        <v>2355</v>
+        <v>2523</v>
       </c>
       <c r="D9" t="n">
-        <v>2.504638405284446</v>
+        <v>1.262553630901872</v>
       </c>
       <c r="E9" t="n">
-        <v>1.879486622856166</v>
+        <v>0.7773897358076327</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6251517824282803</v>
+        <v>-0.4851638950942391</v>
       </c>
       <c r="G9" t="n">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="H9" t="n">
-        <v>30.66113309455523</v>
+        <v>37.1046739620765</v>
       </c>
       <c r="I9" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J9" t="n">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="K9" t="n">
-        <v>163.1457694386326</v>
+        <v>70.12455170231829</v>
       </c>
       <c r="L9" t="n">
-        <v>7.058700783639216</v>
+        <v>8.321314500969608</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8983664453697344</v>
+        <v>0.8017278723528531</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4533145914553651</v>
+        <v>0.2810347236718977</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9124545815643693</v>
+        <v>0.8826328032605451</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>656</v>
+        <v>1275</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>516</v>
+        <v>837</v>
       </c>
       <c r="B10" t="n">
-        <v>580</v>
+        <v>864</v>
       </c>
       <c r="C10" t="n">
-        <v>688</v>
+        <v>946</v>
       </c>
       <c r="D10" t="n">
-        <v>3.597315365192682</v>
+        <v>1.54787806266968</v>
       </c>
       <c r="E10" t="n">
-        <v>3.008160577442583</v>
+        <v>0.946192836207154</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.589154787750099</v>
+        <v>-0.6016852264625258</v>
       </c>
       <c r="G10" t="n">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="H10" t="n">
-        <v>90.82458253382572</v>
+        <v>28.93897837174961</v>
       </c>
       <c r="I10" t="n">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="J10" t="n">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="K10" t="n">
-        <v>401.498644880837</v>
+        <v>84.49364899095346</v>
       </c>
       <c r="L10" t="n">
-        <v>16.35776554953438</v>
+        <v>7.166322169633911</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8097708109408822</v>
+        <v>0.8973091334831493</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.3292682926829268</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6424353581806918</v>
+        <v>0.4074330428410348</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9027330349695585</v>
+        <v>0.9137940223164775</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>657</v>
+        <v>1276</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>2525</v>
       </c>
       <c r="B11" t="n">
-        <v>95</v>
+        <v>2575</v>
       </c>
       <c r="C11" t="n">
-        <v>235</v>
+        <v>2649</v>
       </c>
       <c r="D11" t="n">
-        <v>2.851274113078784</v>
+        <v>3.732979628091938</v>
       </c>
       <c r="E11" t="n">
-        <v>2.226238146104145</v>
+        <v>3.296825240594726</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6250359669746386</v>
+        <v>-0.4361543874972117</v>
       </c>
       <c r="G11" t="n">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="H11" t="n">
-        <v>51.40263231731886</v>
+        <v>50.53122925937578</v>
       </c>
       <c r="I11" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="J11" t="n">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="K11" t="n">
-        <v>229.8897227652364</v>
+        <v>262.7127368459524</v>
       </c>
       <c r="L11" t="n">
-        <v>11.36123050399179</v>
+        <v>11.23677396855078</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.5728957144324428</v>
+        <v>0.8200861099902771</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2514481728476557</v>
+        <v>0.2017842919012504</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9009954333652829</v>
+        <v>0.9949870527635002</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>658</v>
+        <v>1277</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>516</v>
+        <v>638</v>
       </c>
       <c r="B12" t="n">
-        <v>584</v>
+        <v>665</v>
       </c>
       <c r="C12" t="n">
-        <v>722</v>
+        <v>777</v>
       </c>
       <c r="D12" t="n">
-        <v>6.038119368034113</v>
+        <v>3.759972694060178</v>
       </c>
       <c r="E12" t="n">
-        <v>5.665411471415092</v>
+        <v>3.241151434268311</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3727078966190209</v>
+        <v>-0.5188212597918666</v>
       </c>
       <c r="G12" t="n">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="H12" t="n">
-        <v>89.91000450726642</v>
+        <v>167.6451831234021</v>
       </c>
       <c r="I12" t="n">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="J12" t="n">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="K12" t="n">
-        <v>574.4380059342307</v>
+        <v>427.5840313253825</v>
       </c>
       <c r="L12" t="n">
-        <v>28.90834266882185</v>
+        <v>32.24744699268385</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.7905740598670004</v>
+        <v>0.7433851414818178</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4927536231884058</v>
+        <v>0.2410714285714286</v>
       </c>
       <c r="R12" t="n">
-        <v>0.131711935423826</v>
+        <v>0.08743954018200269</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9385161394982054</v>
+        <v>0.8238092966672348</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>659</v>
+        <v>1278</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>397</v>
+        <v>861</v>
       </c>
       <c r="B13" t="n">
-        <v>430</v>
+        <v>880</v>
       </c>
       <c r="C13" t="n">
-        <v>498</v>
+        <v>906</v>
       </c>
       <c r="D13" t="n">
-        <v>2.670915174224727</v>
+        <v>2.958206102045263</v>
       </c>
       <c r="E13" t="n">
-        <v>2.024826083846742</v>
+        <v>2.439384842253397</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6460890903779849</v>
+        <v>-0.5188212597918666</v>
       </c>
       <c r="G13" t="n">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="H13" t="n">
-        <v>32.07337551227693</v>
+        <v>18.26066760312051</v>
       </c>
       <c r="I13" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J13" t="n">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="K13" t="n">
-        <v>161.1504213135497</v>
+        <v>124.3596547123014</v>
       </c>
       <c r="L13" t="n">
-        <v>13.17359919785404</v>
+        <v>25.37108703471126</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8502446161715274</v>
+        <v>0.659293458394886</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4852941176470588</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3444174067536714</v>
+        <v>0.03901226605493253</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8897250410437515</v>
+        <v>0.99404723451015</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>660</v>
+        <v>1279</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1947</v>
+        <v>1211</v>
       </c>
       <c r="B14" t="n">
-        <v>1984</v>
+        <v>1285</v>
       </c>
       <c r="C14" t="n">
-        <v>2097</v>
+        <v>1394</v>
       </c>
       <c r="D14" t="n">
-        <v>1.608080203411244</v>
+        <v>2.704963835587206</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9619911130332593</v>
+        <v>1.971452406070362</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6460890903779849</v>
+        <v>-0.7335114295168443</v>
       </c>
       <c r="G14" t="n">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="H14" t="n">
-        <v>32.2924293138135</v>
+        <v>369.212434662216</v>
       </c>
       <c r="I14" t="n">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J14" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K14" t="n">
-        <v>136.2085990368109</v>
+        <v>370.4506867595478</v>
       </c>
       <c r="L14" t="n">
-        <v>7.931440235234112</v>
+        <v>6.118752947408059</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.7925340520379563</v>
+        <v>0.5528752418894902</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.3274336283185841</v>
+        <v>0.6788990825688074</v>
       </c>
       <c r="R14" t="n">
-        <v>0.481380368874087</v>
+        <v>0.2090110391680323</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8846829672322387</v>
+        <v>0.8699214201686949</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>661</v>
+        <v>1280</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1283</v>
+        <v>2120</v>
       </c>
       <c r="B15" t="n">
-        <v>1318</v>
+        <v>2149</v>
       </c>
       <c r="C15" t="n">
-        <v>1572</v>
+        <v>2196</v>
       </c>
       <c r="D15" t="n">
-        <v>3.110195468529972</v>
+        <v>2.470927480350824</v>
       </c>
       <c r="E15" t="n">
-        <v>2.492200600224907</v>
+        <v>1.73741605083398</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6179948683050657</v>
+        <v>-0.7335114295168443</v>
       </c>
       <c r="G15" t="n">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="H15" t="n">
-        <v>356.5685421109204</v>
+        <v>52.99290805482633</v>
       </c>
       <c r="I15" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J15" t="n">
-        <v>254</v>
+        <v>47</v>
       </c>
       <c r="K15" t="n">
-        <v>365.5540111914742</v>
+        <v>142.7963240055785</v>
       </c>
       <c r="L15" t="n">
-        <v>14.7716016889428</v>
+        <v>5.589351918247023</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8271038621862212</v>
+        <v>0.7080368462927358</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1377952755905512</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5527850527217585</v>
+        <v>0.1459777556900922</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8785596684279605</v>
+        <v>0.8638867574591035</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>662</v>
+        <v>1281</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1483</v>
+        <v>2049</v>
       </c>
       <c r="B16" t="n">
-        <v>1521</v>
+        <v>2076</v>
       </c>
       <c r="C16" t="n">
-        <v>1603</v>
+        <v>2163</v>
       </c>
       <c r="D16" t="n">
-        <v>1.99219815867061</v>
+        <v>2.25874188917834</v>
       </c>
       <c r="E16" t="n">
-        <v>1.389891277596446</v>
+        <v>1.640756659572135</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6023068810741642</v>
+        <v>-0.6179852296062055</v>
       </c>
       <c r="G16" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H16" t="n">
-        <v>43.43623512424665</v>
+        <v>37.82608557658341</v>
       </c>
       <c r="I16" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J16" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K16" t="n">
-        <v>129.3416562769239</v>
+        <v>117.3693244728767</v>
       </c>
       <c r="L16" t="n">
-        <v>5.523100338167395</v>
+        <v>6.368681585216027</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.90156426125353</v>
+        <v>0.9345788433798624</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4634146341463415</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2398186445487882</v>
+        <v>0.4388713071341655</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9895428888805637</v>
+        <v>0.8880140286105939</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>663</v>
+        <v>1282</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>567</v>
+        <v>2225</v>
       </c>
       <c r="B17" t="n">
-        <v>607</v>
+        <v>2253</v>
       </c>
       <c r="C17" t="n">
-        <v>687</v>
+        <v>2360</v>
       </c>
       <c r="D17" t="n">
-        <v>2.496455866508712</v>
+        <v>2.679606742801023</v>
       </c>
       <c r="E17" t="n">
-        <v>1.902784547673808</v>
+        <v>2.061621513194817</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5936713188349036</v>
+        <v>-0.6179852296062055</v>
       </c>
       <c r="G17" t="n">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H17" t="n">
-        <v>41.25726221066202</v>
+        <v>28.84365793242114</v>
       </c>
       <c r="I17" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J17" t="n">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="K17" t="n">
-        <v>157.0493497517838</v>
+        <v>161.5372395744823</v>
       </c>
       <c r="L17" t="n">
-        <v>7.131775133960779</v>
+        <v>7.555339634094044</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.8556891934245388</v>
+        <v>0.884311144244547</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.5</v>
+        <v>0.2616822429906542</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2885861017329765</v>
+        <v>0.4774767103844352</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8815721946614826</v>
+        <v>0.9020166085186336</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>664</v>
+        <v>1283</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,73 +1933,73 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>687</v>
+        <v>2282</v>
       </c>
       <c r="B18" t="n">
-        <v>733</v>
+        <v>2331</v>
       </c>
       <c r="C18" t="n">
-        <v>794</v>
+        <v>2466</v>
       </c>
       <c r="D18" t="n">
-        <v>2.610408652705885</v>
+        <v>2.43483401259975</v>
       </c>
       <c r="E18" t="n">
-        <v>2.016737333870982</v>
+        <v>1.837105939472104</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5936713188349036</v>
+        <v>-0.5977280731276452</v>
       </c>
       <c r="G18" t="n">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="H18" t="n">
-        <v>63.19025979522621</v>
+        <v>68.39171373327736</v>
       </c>
       <c r="I18" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J18" t="n">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="K18" t="n">
-        <v>188.5910510590931</v>
+        <v>215.1310773947279</v>
       </c>
       <c r="L18" t="n">
-        <v>7.457310889649137</v>
+        <v>5.089060076450234</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(2431), 'value': np.float64(0.9755823282492254), 'amplitude': np.float64(1.5733104013768706), 'start_idx': np.int64(2415), 'end_idx': np.int64(2465), 'duration': np.float64(50.0), 'fwhm': np.float64(50.347869469829675), 'rise_time': np.float64(16.0), 'decay_time': np.float64(34.0), 'auc': np.float64(48.13007061837535)}]</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.741173246976237</v>
+        <v>0.7869302991538845</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7540983606557377</v>
+        <v>0.362962962962963</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3731914873165432</v>
+        <v>0.3348336243468885</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8185269009222328</v>
+        <v>0.2521999838185254</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>665</v>
+        <v>1284</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>218</v>
+        <v>1404</v>
       </c>
       <c r="B19" t="n">
-        <v>258</v>
+        <v>1428</v>
       </c>
       <c r="C19" t="n">
-        <v>363</v>
+        <v>1544</v>
       </c>
       <c r="D19" t="n">
-        <v>2.610247519457507</v>
+        <v>2.412065705446728</v>
       </c>
       <c r="E19" t="n">
-        <v>1.921647197675414</v>
+        <v>1.777332792713546</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6886003217820931</v>
+        <v>-0.6347329127331821</v>
       </c>
       <c r="G19" t="n">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H19" t="n">
-        <v>126.1823763759837</v>
+        <v>69.21629334844147</v>
       </c>
       <c r="I19" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J19" t="n">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="K19" t="n">
-        <v>279.3806526925512</v>
+        <v>165.6146573776217</v>
       </c>
       <c r="L19" t="n">
-        <v>10.80049025971117</v>
+        <v>4.60757070126412</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.7594395722707881</v>
+        <v>0.8978662199183911</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="R19" t="n">
-        <v>0.163205987240209</v>
+        <v>0.2644245432479669</v>
       </c>
       <c r="S19" t="n">
-        <v>0.6787604550256954</v>
+        <v>0.8570414455418575</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>666</v>
+        <v>1285</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1023</v>
+        <v>1718</v>
       </c>
       <c r="B20" t="n">
-        <v>1071</v>
+        <v>1811</v>
       </c>
       <c r="C20" t="n">
-        <v>1214</v>
+        <v>2014</v>
       </c>
       <c r="D20" t="n">
-        <v>3.076549297897857</v>
+        <v>2.999502334698827</v>
       </c>
       <c r="E20" t="n">
-        <v>2.387948976115764</v>
+        <v>2.364769421965645</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6886003217820931</v>
+        <v>-0.6347329127331821</v>
       </c>
       <c r="G20" t="n">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c r="H20" t="n">
-        <v>330.8623094994286</v>
+        <v>128.3284783016318</v>
       </c>
       <c r="I20" t="n">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J20" t="n">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="K20" t="n">
-        <v>431.0230189022814</v>
+        <v>391.9772513367764</v>
       </c>
       <c r="L20" t="n">
-        <v>12.72991947230082</v>
+        <v>5.729702571751469</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8328157666640312</v>
+        <v>0.6863336343698688</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3356643356643357</v>
+        <v>0.458128078817734</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3606723124242592</v>
+        <v>0.3926487134968189</v>
       </c>
       <c r="S20" t="n">
-        <v>0.7501416340756875</v>
+        <v>0.8090487454819234</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>667</v>
+        <v>1286</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>848</v>
+        <v>708</v>
       </c>
       <c r="B21" t="n">
-        <v>885</v>
+        <v>737</v>
       </c>
       <c r="C21" t="n">
-        <v>951</v>
+        <v>819</v>
       </c>
       <c r="D21" t="n">
-        <v>2.486121784940768</v>
+        <v>2.957639546127103</v>
       </c>
       <c r="E21" t="n">
-        <v>2.048602267283665</v>
+        <v>2.454496881672164</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4375195176571026</v>
+        <v>-0.5031426644549396</v>
       </c>
       <c r="G21" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H21" t="n">
-        <v>33.33722730875547</v>
+        <v>100.0004905728266</v>
       </c>
       <c r="I21" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J21" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="K21" t="n">
-        <v>146.5998871738222</v>
+        <v>251.5061273658123</v>
       </c>
       <c r="L21" t="n">
-        <v>15.51302129346315</v>
+        <v>5.398049135231262</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.828474326327432</v>
+        <v>0.7931375947555384</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.5606060606060606</v>
+        <v>0.3536585365853658</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3172839161965103</v>
+        <v>0.3397611156894281</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8952708259148855</v>
+        <v>0.5444391892182585</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>668</v>
+        <v>1287</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>722</v>
+        <v>519</v>
       </c>
       <c r="B22" t="n">
-        <v>774</v>
+        <v>570</v>
       </c>
       <c r="C22" t="n">
-        <v>851</v>
+        <v>679</v>
       </c>
       <c r="D22" t="n">
-        <v>4.014449857727398</v>
+        <v>3.789369665986882</v>
       </c>
       <c r="E22" t="n">
-        <v>3.331800819714823</v>
+        <v>3.198868327079827</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.6826490380125755</v>
+        <v>-0.5905013389070549</v>
       </c>
       <c r="G22" t="n">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="H22" t="n">
-        <v>259.3040040401513</v>
+        <v>85.48261027504145</v>
       </c>
       <c r="I22" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J22" t="n">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="K22" t="n">
-        <v>382.0680608536967</v>
+        <v>385.9728166744721</v>
       </c>
       <c r="L22" t="n">
-        <v>18.07560400935058</v>
+        <v>16.70533275891985</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.7379752188709314</v>
+        <v>0.8370295227030538</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.6753246753246753</v>
+        <v>0.4678899082568808</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4810287205986959</v>
+        <v>0.9643307833698388</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8888473475044765</v>
+        <v>0.8382503065677849</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>669</v>
+        <v>1288</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>851</v>
+        <v>1175</v>
       </c>
       <c r="B23" t="n">
-        <v>902</v>
+        <v>1197</v>
       </c>
       <c r="C23" t="n">
-        <v>1244</v>
+        <v>1298</v>
       </c>
       <c r="D23" t="n">
-        <v>3.544705865107858</v>
+        <v>2.29009472590502</v>
       </c>
       <c r="E23" t="n">
-        <v>2.862056827095282</v>
+        <v>1.699593386997964</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.6826490380125755</v>
+        <v>-0.5905013389070549</v>
       </c>
       <c r="G23" t="n">
-        <v>393</v>
+        <v>123</v>
       </c>
       <c r="H23" t="n">
-        <v>53.52811174751275</v>
+        <v>162.8768950142464</v>
       </c>
       <c r="I23" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J23" t="n">
-        <v>342</v>
+        <v>101</v>
       </c>
       <c r="K23" t="n">
-        <v>802.4078476952836</v>
+        <v>129.5565818132475</v>
       </c>
       <c r="L23" t="n">
-        <v>15.96051808293952</v>
+        <v>10.0958201014488</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.7095393926000176</v>
+        <v>0.8345604387373482</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1491228070175439</v>
+        <v>0.2178217821782178</v>
       </c>
       <c r="R23" t="n">
-        <v>0.4184625994646489</v>
+        <v>0.5404118235313545</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8115877827540146</v>
+        <v>0.7528167223033206</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>670</v>
+        <v>1289</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>728</v>
+        <v>1298</v>
       </c>
       <c r="B24" t="n">
-        <v>775</v>
+        <v>1329</v>
       </c>
       <c r="C24" t="n">
-        <v>855</v>
+        <v>1387</v>
       </c>
       <c r="D24" t="n">
-        <v>5.65477170438047</v>
+        <v>2.085851078935347</v>
       </c>
       <c r="E24" t="n">
-        <v>5.261629019297631</v>
+        <v>1.495349740028292</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.3931426850828389</v>
+        <v>-0.5905013389070549</v>
       </c>
       <c r="G24" t="n">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="H24" t="n">
-        <v>91.85738344112701</v>
+        <v>65.12594072639422</v>
       </c>
       <c r="I24" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J24" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="K24" t="n">
-        <v>462.4132641750794</v>
+        <v>118.1276100332928</v>
       </c>
       <c r="L24" t="n">
-        <v>24.3179865212096</v>
+        <v>9.195417557682953</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.7844318965700193</v>
+        <v>0.7235787736833792</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.5875</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4004925051383201</v>
+        <v>0.4491147461382974</v>
       </c>
       <c r="S24" t="n">
-        <v>0.8742078360145513</v>
+        <v>0.5231938498430497</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>671</v>
+        <v>1290</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2129</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>2167</v>
+        <v>97</v>
       </c>
       <c r="C25" t="n">
-        <v>2390</v>
+        <v>241</v>
       </c>
       <c r="D25" t="n">
-        <v>1.386340246712878</v>
+        <v>2.912596592169675</v>
       </c>
       <c r="E25" t="n">
-        <v>0.992008574323096</v>
+        <v>2.28106607386414</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.3943316723897825</v>
+        <v>-0.6315305183055355</v>
       </c>
       <c r="G25" t="n">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="H25" t="n">
-        <v>57.29188627206349</v>
+        <v>51.94203408867939</v>
       </c>
       <c r="I25" t="n">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="J25" t="n">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="K25" t="n">
-        <v>133.0155788715427</v>
+        <v>232.6889247408147</v>
       </c>
       <c r="L25" t="n">
-        <v>9.056054056857947</v>
+        <v>11.51855927095905</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.8079421942194263</v>
+        <v>0.5511271875810079</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1704035874439462</v>
+        <v>0.6736111111111112</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4340282159661811</v>
+        <v>0.3394516859195595</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7461729238945798</v>
+        <v>0.8037038198245756</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>672</v>
+        <v>1291</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2390</v>
+        <v>935</v>
       </c>
       <c r="B26" t="n">
-        <v>2452</v>
+        <v>953</v>
       </c>
       <c r="C26" t="n">
-        <v>2649</v>
+        <v>1016</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8242850169474416</v>
+        <v>3.768497161181859</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4299533445576591</v>
+        <v>3.136966642876323</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.3943316723897825</v>
+        <v>-0.6315305183055355</v>
       </c>
       <c r="G26" t="n">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="H26" t="n">
-        <v>80.18621464524176</v>
+        <v>27.45070108854998</v>
       </c>
       <c r="I26" t="n">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J26" t="n">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="K26" t="n">
-        <v>287.3611063071352</v>
+        <v>255.5742618261679</v>
       </c>
       <c r="L26" t="n">
-        <v>5.3845148688669</v>
+        <v>14.90342261273422</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.7722602545291796</v>
+        <v>0.8471811240732783</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3147208121827411</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R26" t="n">
-        <v>2.432734651593606</v>
+        <v>0.08854340173482912</v>
       </c>
       <c r="S26" t="n">
-        <v>0.3594271343057329</v>
+        <v>0.958091358904394</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>673</v>
+        <v>1292</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1591</v>
+        <v>520</v>
       </c>
       <c r="B27" t="n">
-        <v>1632</v>
+        <v>589</v>
       </c>
       <c r="C27" t="n">
-        <v>1761</v>
+        <v>729</v>
       </c>
       <c r="D27" t="n">
-        <v>3.26178076502431</v>
+        <v>6.097546353803031</v>
       </c>
       <c r="E27" t="n">
-        <v>2.694071600610078</v>
+        <v>5.708722644789792</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5677091644142322</v>
+        <v>-0.3888237090132388</v>
       </c>
       <c r="G27" t="n">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="H27" t="n">
-        <v>72.19665997888478</v>
+        <v>84.8485300328465</v>
       </c>
       <c r="I27" t="n">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="J27" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K27" t="n">
-        <v>267.7230962391724</v>
+        <v>583.5667922287143</v>
       </c>
       <c r="L27" t="n">
-        <v>13.20205965337352</v>
+        <v>28.765252199337</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.9273902955967706</v>
+        <v>0.859830563581743</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.3178294573643411</v>
+        <v>0.4928571428571429</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1899221778306623</v>
+        <v>0.20677193164894</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9551970933298914</v>
+        <v>0.9426374675881101</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>674</v>
+        <v>1293</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1945</v>
+        <v>321</v>
       </c>
       <c r="B28" t="n">
-        <v>2019</v>
+        <v>351</v>
       </c>
       <c r="C28" t="n">
-        <v>2155</v>
+        <v>462</v>
       </c>
       <c r="D28" t="n">
-        <v>3.802020059739731</v>
+        <v>3.333836761149993</v>
       </c>
       <c r="E28" t="n">
-        <v>3.274780755239779</v>
+        <v>2.813785118585137</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.5272393044999522</v>
+        <v>-0.5200516425648555</v>
       </c>
       <c r="G28" t="n">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c r="H28" t="n">
-        <v>198.1670753011631</v>
+        <v>197.7468013123854</v>
       </c>
       <c r="I28" t="n">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="J28" t="n">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="K28" t="n">
-        <v>530.2565686578394</v>
+        <v>356.4232012298314</v>
       </c>
       <c r="L28" t="n">
-        <v>13.18036515178227</v>
+        <v>10.43580304901703</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.6823209585751273</v>
+        <v>0.780056655186516</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.5441176470588235</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="R28" t="n">
-        <v>0.3727056773301614</v>
+        <v>0.1532528632707283</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9803913233778631</v>
+        <v>0.6614855370340171</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>675</v>
+        <v>1294</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2155</v>
+        <v>462</v>
       </c>
       <c r="B29" t="n">
-        <v>2290</v>
+        <v>482</v>
       </c>
       <c r="C29" t="n">
-        <v>2598</v>
+        <v>528</v>
       </c>
       <c r="D29" t="n">
-        <v>2.533441166220322</v>
+        <v>1.814424695427719</v>
       </c>
       <c r="E29" t="n">
-        <v>2.00620186172037</v>
+        <v>1.294373052862863</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.5272393044999522</v>
+        <v>-0.5200516425648555</v>
       </c>
       <c r="G29" t="n">
-        <v>443</v>
+        <v>66</v>
       </c>
       <c r="H29" t="n">
-        <v>74.96069719578509</v>
+        <v>26.2808633913329</v>
       </c>
       <c r="I29" t="n">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="J29" t="n">
-        <v>308</v>
+        <v>46</v>
       </c>
       <c r="K29" t="n">
-        <v>431.523390011121</v>
+        <v>79.97143110684507</v>
       </c>
       <c r="L29" t="n">
-        <v>8.782615329921962</v>
+        <v>5.679635844625111</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.7095805459972362</v>
+        <v>0.8489719041660269</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.4383116883116883</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4530099460544484</v>
+        <v>0.1468450025438855</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9154221694802103</v>
+        <v>0.9802702596875055</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>676</v>
+        <v>1295</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,73 +2965,73 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2215</v>
+        <v>2244</v>
       </c>
       <c r="B30" t="n">
-        <v>2256</v>
+        <v>2268</v>
       </c>
       <c r="C30" t="n">
-        <v>2593</v>
+        <v>2411</v>
       </c>
       <c r="D30" t="n">
-        <v>6.7808812539449</v>
+        <v>1.907152921387395</v>
       </c>
       <c r="E30" t="n">
-        <v>6.387301845230897</v>
+        <v>1.38710127882254</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.3935794087140032</v>
+        <v>-0.5200516425648555</v>
       </c>
       <c r="G30" t="n">
-        <v>378</v>
+        <v>167</v>
       </c>
       <c r="H30" t="n">
-        <v>53.49616221267252</v>
+        <v>65.97446126538534</v>
       </c>
       <c r="I30" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J30" t="n">
-        <v>337</v>
+        <v>143</v>
       </c>
       <c r="K30" t="n">
-        <v>672.9760133069919</v>
+        <v>128.1519983827775</v>
       </c>
       <c r="L30" t="n">
-        <v>39.70221780778977</v>
+        <v>5.969900057461414</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(2385), 'value': np.float64(0.5693591631886695), 'amplitude': np.float64(1.089410805753525), 'start_idx': np.int64(2360), 'end_idx': np.int64(2410), 'duration': np.float64(50.0), 'fwhm': np.float64(21.777052243884555), 'rise_time': np.float64(25.0), 'decay_time': np.float64(25.0), 'auc': np.float64(31.93576734418212)}]</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.7894471151508362</v>
+        <v>0.7949504702130915</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.1216617210682493</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="R30" t="n">
-        <v>0.5653611962602715</v>
+        <v>0.56186053816774</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9159600194210529</v>
+        <v>0.3436732659136139</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>677</v>
+        <v>1296</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1014</v>
+        <v>402</v>
       </c>
       <c r="B31" t="n">
-        <v>1178</v>
+        <v>430</v>
       </c>
       <c r="C31" t="n">
-        <v>1512</v>
+        <v>504</v>
       </c>
       <c r="D31" t="n">
-        <v>3.734518592770627</v>
+        <v>3.046646403294946</v>
       </c>
       <c r="E31" t="n">
-        <v>3.098621649432834</v>
+        <v>2.399539924374173</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6358969433377928</v>
+        <v>-0.6471064789207728</v>
       </c>
       <c r="G31" t="n">
-        <v>498</v>
+        <v>102</v>
       </c>
       <c r="H31" t="n">
-        <v>223.0169237317643</v>
+        <v>25.16256234502919</v>
       </c>
       <c r="I31" t="n">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="J31" t="n">
-        <v>334</v>
+        <v>74</v>
       </c>
       <c r="K31" t="n">
-        <v>865.1417330965041</v>
+        <v>158.2218443873589</v>
       </c>
       <c r="L31" t="n">
-        <v>20.80357946395853</v>
+        <v>14.86354880120115</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.8080710381567413</v>
+        <v>0.8440753598426695</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4910179640718563</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="R31" t="n">
-        <v>0.274249106356864</v>
+        <v>0.3846353090553866</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8721606240900978</v>
+        <v>0.8238108064529717</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n44</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>678</v>
+        <v>1297</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1906</v>
+        <v>1949</v>
       </c>
       <c r="B32" t="n">
-        <v>1950</v>
+        <v>1982</v>
       </c>
       <c r="C32" t="n">
-        <v>2007</v>
+        <v>2104</v>
       </c>
       <c r="D32" t="n">
-        <v>1.94058528984291</v>
+        <v>1.787023111297712</v>
       </c>
       <c r="E32" t="n">
-        <v>1.304688346505118</v>
+        <v>1.139916632376939</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6358969433377928</v>
+        <v>-0.6471064789207728</v>
       </c>
       <c r="G32" t="n">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="H32" t="n">
-        <v>47.88754144111726</v>
+        <v>19.75823686928948</v>
       </c>
       <c r="I32" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J32" t="n">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="K32" t="n">
-        <v>109.6909922194211</v>
+        <v>135.1204066842891</v>
       </c>
       <c r="L32" t="n">
-        <v>10.81026088931178</v>
+        <v>8.718276329974367</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.7457300230780092</v>
+        <v>0.7119354811204609</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.7719298245614035</v>
+        <v>0.2704918032786885</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1682657573997954</v>
+        <v>0.4935103549409192</v>
       </c>
       <c r="S32" t="n">
-        <v>0.98351200155237</v>
+        <v>0.8245662797676445</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n44</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>679</v>
+        <v>1298</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1800</v>
+        <v>198</v>
       </c>
       <c r="B33" t="n">
-        <v>1897</v>
+        <v>217</v>
       </c>
       <c r="C33" t="n">
-        <v>2057</v>
+        <v>263</v>
       </c>
       <c r="D33" t="n">
-        <v>2.296447590366311</v>
+        <v>3.274514398064333</v>
       </c>
       <c r="E33" t="n">
-        <v>1.639083711012153</v>
+        <v>2.77585319047898</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.6573638793541572</v>
+        <v>-0.4986612075853538</v>
       </c>
       <c r="G33" t="n">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="H33" t="n">
-        <v>50.62441350961626</v>
+        <v>15.84789575302958</v>
       </c>
       <c r="I33" t="n">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="J33" t="n">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="K33" t="n">
-        <v>364.8774258132072</v>
+        <v>138.9287440126992</v>
       </c>
       <c r="L33" t="n">
-        <v>6.225040639345822</v>
+        <v>15.98609697889346</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.5218195428828252</v>
+        <v>0.8580501916863358</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.60625</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2592870920606437</v>
+        <v>0.3837542738300521</v>
       </c>
       <c r="S33" t="n">
-        <v>0.6287626476900892</v>
+        <v>0.9641091059303812</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n45</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>680</v>
+        <v>1299</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2248</v>
+        <v>321</v>
       </c>
       <c r="B34" t="n">
-        <v>2398</v>
+        <v>348</v>
       </c>
       <c r="C34" t="n">
-        <v>2649</v>
+        <v>463</v>
       </c>
       <c r="D34" t="n">
-        <v>3.127206514571939</v>
+        <v>1.957385858707684</v>
       </c>
       <c r="E34" t="n">
-        <v>2.633654952153878</v>
+        <v>1.45872465112233</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.493551562418061</v>
+        <v>-0.4986612075853538</v>
       </c>
       <c r="G34" t="n">
-        <v>401</v>
+        <v>142</v>
       </c>
       <c r="H34" t="n">
-        <v>137.5817963432669</v>
+        <v>23.44193406991388</v>
       </c>
       <c r="I34" t="n">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="J34" t="n">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="K34" t="n">
-        <v>743.3078104687213</v>
+        <v>142.5564196234169</v>
       </c>
       <c r="L34" t="n">
-        <v>6.466441613855511</v>
+        <v>9.555908558811877</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.591052064557546</v>
+        <v>0.8338517338061889</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.5976095617529881</v>
+        <v>0.2347826086956522</v>
       </c>
       <c r="R34" t="n">
-        <v>0.146111585296244</v>
+        <v>0.467546629858502</v>
       </c>
       <c r="S34" t="n">
-        <v>0.6460486913311043</v>
+        <v>0.840848533229661</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n46</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>681</v>
+        <v>1300</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2393</v>
+        <v>1465</v>
       </c>
       <c r="B35" t="n">
-        <v>2433</v>
+        <v>1500</v>
       </c>
       <c r="C35" t="n">
-        <v>2649</v>
+        <v>1667</v>
       </c>
       <c r="D35" t="n">
-        <v>4.884829208989047</v>
+        <v>3.390411934213972</v>
       </c>
       <c r="E35" t="n">
-        <v>4.463111405121837</v>
+        <v>2.891750726628619</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.4217178038672106</v>
+        <v>-0.4986612075853538</v>
       </c>
       <c r="G35" t="n">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="H35" t="n">
-        <v>65.86368670284082</v>
+        <v>60.64334499195957</v>
       </c>
       <c r="I35" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J35" t="n">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="K35" t="n">
-        <v>446.6579483482897</v>
+        <v>247.1040199456734</v>
       </c>
       <c r="L35" t="n">
-        <v>15.10914884254032</v>
+        <v>16.55190583702465</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.8146564728706355</v>
+        <v>0.8974121364337673</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.2095808383233533</v>
       </c>
       <c r="R35" t="n">
-        <v>0.5458568585427459</v>
+        <v>0.4376271985083631</v>
       </c>
       <c r="S35" t="n">
-        <v>0.6577605609804993</v>
+        <v>0.8817869953262056</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n47</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>682</v>
+        <v>1301</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2333</v>
+        <v>81</v>
       </c>
       <c r="B36" t="n">
-        <v>2359</v>
+        <v>110</v>
       </c>
       <c r="C36" t="n">
-        <v>2394</v>
+        <v>162</v>
       </c>
       <c r="D36" t="n">
-        <v>1.374675415328701</v>
+        <v>2.041299418930168</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9772731840011065</v>
+        <v>1.507176874129779</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3974022313275946</v>
+        <v>-0.5341225448003896</v>
       </c>
       <c r="G36" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H36" t="n">
-        <v>31.48766713156829</v>
+        <v>40.62787156344019</v>
       </c>
       <c r="I36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J36" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K36" t="n">
-        <v>57.74916546357343</v>
+        <v>89.33942518651916</v>
       </c>
       <c r="L36" t="n">
-        <v>8.272140135555013</v>
+        <v>4.967543441468577</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.7511429717317825</v>
+        <v>0.813406912511035</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7428571428571429</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1956385074177759</v>
+        <v>0.1982477069433107</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9045810534846076</v>
+        <v>0.938634411694661</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n48</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>683</v>
+        <v>1302</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2230</v>
+        <v>59</v>
       </c>
       <c r="B37" t="n">
-        <v>2274</v>
+        <v>88</v>
       </c>
       <c r="C37" t="n">
-        <v>2349</v>
+        <v>146</v>
       </c>
       <c r="D37" t="n">
-        <v>1.969166017133019</v>
+        <v>1.065529641134758</v>
       </c>
       <c r="E37" t="n">
-        <v>1.259489197436261</v>
+        <v>0.4624620827303913</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.7096768196967579</v>
+        <v>-0.6030675584043663</v>
       </c>
       <c r="G37" t="n">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="H37" t="n">
-        <v>39.51753968802086</v>
+        <v>26.52425013780201</v>
       </c>
       <c r="I37" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="J37" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="K37" t="n">
-        <v>146.2023223580047</v>
+        <v>64.36296933701358</v>
       </c>
       <c r="L37" t="n">
-        <v>6.859423127776049</v>
+        <v>4.826876075888112</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.7485887832478413</v>
+        <v>0.6483505717405973</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.5866666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1251159699052595</v>
+        <v>0.3838473922946941</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9426400526919602</v>
+        <v>0.3447084592276698</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n52</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>684</v>
+        <v>1303</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1369</v>
+        <v>1332</v>
       </c>
       <c r="B38" t="n">
-        <v>1395</v>
+        <v>1352</v>
       </c>
       <c r="C38" t="n">
-        <v>1434</v>
+        <v>1522</v>
       </c>
       <c r="D38" t="n">
-        <v>1.876243681315723</v>
+        <v>2.839425043329144</v>
       </c>
       <c r="E38" t="n">
-        <v>1.37702498743417</v>
+        <v>2.236357484924778</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4992186938815532</v>
+        <v>-0.6030675584043663</v>
       </c>
       <c r="G38" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="H38" t="n">
-        <v>32.67542683423653</v>
+        <v>15.26221001711724</v>
       </c>
       <c r="I38" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J38" t="n">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="K38" t="n">
-        <v>67.50894034632115</v>
+        <v>220.7903060356404</v>
       </c>
       <c r="L38" t="n">
-        <v>6.890343630657248</v>
+        <v>12.86266686708687</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.6887122550147525</v>
+        <v>0.7123205210228875</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="R38" t="n">
-        <v>0.09454712857446158</v>
+        <v>0.6104849923329149</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9443517247259643</v>
+        <v>0.6318579432719846</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n53</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>685</v>
+        <v>1304</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,85 +3739,4901 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1434</v>
+        <v>2575</v>
       </c>
       <c r="B39" t="n">
-        <v>1498</v>
+        <v>2599</v>
       </c>
       <c r="C39" t="n">
-        <v>1606</v>
+        <v>2649</v>
       </c>
       <c r="D39" t="n">
-        <v>3.683302066700431</v>
+        <v>1.706407130043124</v>
       </c>
       <c r="E39" t="n">
-        <v>3.184083372818878</v>
+        <v>1.103339571638758</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.4992186938815532</v>
+        <v>-0.6030675584043663</v>
       </c>
       <c r="G39" t="n">
+        <v>74</v>
+      </c>
+      <c r="H39" t="n">
+        <v>48.70677391826621</v>
+      </c>
+      <c r="I39" t="n">
+        <v>24</v>
+      </c>
+      <c r="J39" t="n">
+        <v>50</v>
+      </c>
+      <c r="K39" t="n">
+        <v>87.26828824651119</v>
+      </c>
+      <c r="L39" t="n">
+        <v>7.730067220803258</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0.8184493270055524</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.405040037455818</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.8410414020475795</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>1305</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9</v>
+      </c>
+      <c r="C40" t="n">
+        <v>29</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.023421435039549</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.532131231952004</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.4912902030875447</v>
+      </c>
+      <c r="G40" t="n">
+        <v>29</v>
+      </c>
+      <c r="H40" t="n">
+        <v>13.85651957888364</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9</v>
+      </c>
+      <c r="J40" t="n">
+        <v>20</v>
+      </c>
+      <c r="K40" t="n">
+        <v>46.032771620129</v>
+      </c>
+      <c r="L40" t="n">
+        <v>7.414844755331749</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0.8526881250302241</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.1841475875278588</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.9777333742226134</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>1306</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1204</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.94898047695234</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.350371497665439</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.5986089792869012</v>
+      </c>
+      <c r="G41" t="n">
+        <v>142</v>
+      </c>
+      <c r="H41" t="n">
+        <v>100.8518509069359</v>
+      </c>
+      <c r="I41" t="n">
+        <v>46</v>
+      </c>
+      <c r="J41" t="n">
+        <v>96</v>
+      </c>
+      <c r="K41" t="n">
+        <v>284.5878758396643</v>
+      </c>
+      <c r="L41" t="n">
+        <v>7.97029818113084</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0.7154404299309536</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.09469397838988003</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.9078210368379988</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>1307</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1488</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1515</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1610</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.188428020447354</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.589819041160453</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.5986089792869012</v>
+      </c>
+      <c r="G42" t="n">
+        <v>122</v>
+      </c>
+      <c r="H42" t="n">
+        <v>35.4224869864579</v>
+      </c>
+      <c r="I42" t="n">
+        <v>27</v>
+      </c>
+      <c r="J42" t="n">
+        <v>95</v>
+      </c>
+      <c r="K42" t="n">
+        <v>132.3975667409071</v>
+      </c>
+      <c r="L42" t="n">
+        <v>5.914730194800542</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0.9495918808440602</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.2842105263157895</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.2489741580393983</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.9850018729683517</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>1308</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>82</v>
+      </c>
+      <c r="B43" t="n">
+        <v>138</v>
+      </c>
+      <c r="C43" t="n">
+        <v>213</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3.042023456959184</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.448287629212175</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.5937358277470087</v>
+      </c>
+      <c r="G43" t="n">
+        <v>131</v>
+      </c>
+      <c r="H43" t="n">
+        <v>77.92836530204342</v>
+      </c>
+      <c r="I43" t="n">
+        <v>56</v>
+      </c>
+      <c r="J43" t="n">
+        <v>75</v>
+      </c>
+      <c r="K43" t="n">
+        <v>224.6487813665622</v>
+      </c>
+      <c r="L43" t="n">
+        <v>8.619076222208665</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0.7484371802371816</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.1915634359907892</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.9639636763337599</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>1309</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>263</v>
+      </c>
+      <c r="B44" t="n">
+        <v>291</v>
+      </c>
+      <c r="C44" t="n">
+        <v>400</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.825306537126366</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.231570709379358</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.5937358277470087</v>
+      </c>
+      <c r="G44" t="n">
+        <v>137</v>
+      </c>
+      <c r="H44" t="n">
+        <v>46.03199935897914</v>
+      </c>
+      <c r="I44" t="n">
+        <v>28</v>
+      </c>
+      <c r="J44" t="n">
+        <v>109</v>
+      </c>
+      <c r="K44" t="n">
+        <v>185.5807346981637</v>
+      </c>
+      <c r="L44" t="n">
+        <v>8.005044253977726</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.9610752357431961</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.2568807339449541</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.5044424549587051</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.981898244791838</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>1310</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>573</v>
+      </c>
+      <c r="B45" t="n">
+        <v>602</v>
+      </c>
+      <c r="C45" t="n">
+        <v>694</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.861824247239638</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.268088419492629</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.5937358277470087</v>
+      </c>
+      <c r="G45" t="n">
+        <v>121</v>
+      </c>
+      <c r="H45" t="n">
+        <v>31.18423941802519</v>
+      </c>
+      <c r="I45" t="n">
+        <v>29</v>
+      </c>
+      <c r="J45" t="n">
+        <v>92</v>
+      </c>
+      <c r="K45" t="n">
+        <v>154.4937048174944</v>
+      </c>
+      <c r="L45" t="n">
+        <v>8.108511216471641</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.8878778565151458</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.3152173913043478</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.2991663009641835</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.856266896150758</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>1311</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>694</v>
+      </c>
+      <c r="B46" t="n">
+        <v>723</v>
+      </c>
+      <c r="C46" t="n">
+        <v>799</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.753258992792185</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.159523165045176</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.5937358277470087</v>
+      </c>
+      <c r="G46" t="n">
+        <v>105</v>
+      </c>
+      <c r="H46" t="n">
+        <v>62.70629571751749</v>
+      </c>
+      <c r="I46" t="n">
+        <v>29</v>
+      </c>
+      <c r="J46" t="n">
+        <v>76</v>
+      </c>
+      <c r="K46" t="n">
+        <v>191.8932503054675</v>
+      </c>
+      <c r="L46" t="n">
+        <v>7.800909313854677</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.8513660421818559</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.3815789473684211</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.4675751598122204</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.7772901093275599</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>1312</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>58</v>
+      </c>
+      <c r="B47" t="n">
+        <v>86</v>
+      </c>
+      <c r="C47" t="n">
+        <v>142</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.746882934074248</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.061040510893796</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.685842423180452</v>
+      </c>
+      <c r="G47" t="n">
+        <v>84</v>
+      </c>
+      <c r="H47" t="n">
+        <v>45.78248639133008</v>
+      </c>
+      <c r="I47" t="n">
+        <v>28</v>
+      </c>
+      <c r="J47" t="n">
+        <v>56</v>
+      </c>
+      <c r="K47" t="n">
+        <v>93.94540922556394</v>
+      </c>
+      <c r="L47" t="n">
+        <v>7.158404585872451</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.8327057733061718</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.3461359949076181</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.8804822237767862</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>1313</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>142</v>
+      </c>
+      <c r="B48" t="n">
+        <v>173</v>
+      </c>
+      <c r="C48" t="n">
+        <v>222</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.04977189894357</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.363929475763118</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.685842423180452</v>
+      </c>
+      <c r="G48" t="n">
+        <v>80</v>
+      </c>
+      <c r="H48" t="n">
+        <v>42.40468799702043</v>
+      </c>
+      <c r="I48" t="n">
+        <v>31</v>
+      </c>
+      <c r="J48" t="n">
+        <v>49</v>
+      </c>
+      <c r="K48" t="n">
+        <v>116.3136103678166</v>
+      </c>
+      <c r="L48" t="n">
+        <v>8.399587788729569</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.7244420100879607</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.6326530612244898</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.1290506789132854</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.9446280470379916</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>1314</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>285</v>
+      </c>
+      <c r="B49" t="n">
+        <v>312</v>
+      </c>
+      <c r="C49" t="n">
+        <v>369</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.445296680320113</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.759454257139662</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.685842423180452</v>
+      </c>
+      <c r="G49" t="n">
+        <v>84</v>
+      </c>
+      <c r="H49" t="n">
+        <v>22.96972558901092</v>
+      </c>
+      <c r="I49" t="n">
+        <v>27</v>
+      </c>
+      <c r="J49" t="n">
+        <v>57</v>
+      </c>
+      <c r="K49" t="n">
+        <v>150.7281920968055</v>
+      </c>
+      <c r="L49" t="n">
+        <v>10.02037550930599</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.8524494829309839</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.2332017450382177</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.980636495515112</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>1315</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>369</v>
+      </c>
+      <c r="B50" t="n">
+        <v>397</v>
+      </c>
+      <c r="C50" t="n">
+        <v>466</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.777186983353605</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.091344560173153</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.685842423180452</v>
+      </c>
+      <c r="G50" t="n">
+        <v>97</v>
+      </c>
+      <c r="H50" t="n">
+        <v>28.05257918562597</v>
+      </c>
+      <c r="I50" t="n">
+        <v>28</v>
+      </c>
+      <c r="J50" t="n">
+        <v>69</v>
+      </c>
+      <c r="K50" t="n">
+        <v>95.21726753607632</v>
+      </c>
+      <c r="L50" t="n">
+        <v>7.282584999511222</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.8524939561224975</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.4057971014492754</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.3908105191534064</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.8187160358921589</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>1316</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1134</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1220</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.619458519000426</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.933616095819974</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.685842423180452</v>
+      </c>
+      <c r="G51" t="n">
+        <v>107</v>
+      </c>
+      <c r="H51" t="n">
+        <v>14.33086582207284</v>
+      </c>
+      <c r="I51" t="n">
+        <v>21</v>
+      </c>
+      <c r="J51" t="n">
+        <v>86</v>
+      </c>
+      <c r="K51" t="n">
+        <v>235.5842400561191</v>
+      </c>
+      <c r="L51" t="n">
+        <v>10.73405865336499</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.6161064445798797</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.1063951910516917</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.3514986922653939</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>1317</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>852</v>
+      </c>
+      <c r="B52" t="n">
+        <v>879</v>
+      </c>
+      <c r="C52" t="n">
+        <v>957</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.714826307427343</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.279638546881367</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.4351877605459754</v>
+      </c>
+      <c r="G52" t="n">
+        <v>105</v>
+      </c>
+      <c r="H52" t="n">
+        <v>34.72502754187553</v>
+      </c>
+      <c r="I52" t="n">
+        <v>27</v>
+      </c>
+      <c r="J52" t="n">
+        <v>78</v>
+      </c>
+      <c r="K52" t="n">
+        <v>142.7890037452516</v>
+      </c>
+      <c r="L52" t="n">
+        <v>16.16193335663998</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.9227795236882899</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.2891427760686914</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.9195512556040788</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>1318</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>957</v>
+      </c>
+      <c r="B53" t="n">
+        <v>991</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1131</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.49194882729786</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.056761066751885</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.4351877605459754</v>
+      </c>
+      <c r="G53" t="n">
+        <v>174</v>
+      </c>
+      <c r="H53" t="n">
+        <v>47.65301848644265</v>
+      </c>
+      <c r="I53" t="n">
+        <v>34</v>
+      </c>
+      <c r="J53" t="n">
+        <v>140</v>
+      </c>
+      <c r="K53" t="n">
+        <v>154.8884814855595</v>
+      </c>
+      <c r="L53" t="n">
+        <v>14.83509672967285</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.8758987183353257</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.2428571428571429</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.43592831353844</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.7686197985820701</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>1319</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>209</v>
+      </c>
+      <c r="B54" t="n">
+        <v>245</v>
+      </c>
+      <c r="C54" t="n">
+        <v>307</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.9212710660333392</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.2440798893412146</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.6771911766921246</v>
+      </c>
+      <c r="G54" t="n">
+        <v>98</v>
+      </c>
+      <c r="H54" t="n">
+        <v>29.50837947065941</v>
+      </c>
+      <c r="I54" t="n">
+        <v>36</v>
+      </c>
+      <c r="J54" t="n">
+        <v>62</v>
+      </c>
+      <c r="K54" t="n">
+        <v>48.72190853324494</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4.170218813477375</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.7463034178742551</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.5806451612903226</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.3415765282486572</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.6008446879841544</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>1320</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>307</v>
+      </c>
+      <c r="B55" t="n">
+        <v>356</v>
+      </c>
+      <c r="C55" t="n">
+        <v>624</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.62314028912711</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.9459491124349851</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.6771911766921246</v>
+      </c>
+      <c r="G55" t="n">
+        <v>317</v>
+      </c>
+      <c r="H55" t="n">
+        <v>126.1886436818035</v>
+      </c>
+      <c r="I55" t="n">
+        <v>49</v>
+      </c>
+      <c r="J55" t="n">
+        <v>268</v>
+      </c>
+      <c r="K55" t="n">
+        <v>211.6055999936312</v>
+      </c>
+      <c r="L55" t="n">
+        <v>7.347294862710933</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.8712853469239453</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.1828358208955224</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.4800087981659384</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.6651175924781614</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>1321</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>806</v>
+      </c>
+      <c r="B56" t="n">
+        <v>819</v>
+      </c>
+      <c r="C56" t="n">
+        <v>848</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3.679560693900869</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.002369517208745</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.6771911766921246</v>
+      </c>
+      <c r="G56" t="n">
+        <v>42</v>
+      </c>
+      <c r="H56" t="n">
+        <v>13.39989239903309</v>
+      </c>
+      <c r="I56" t="n">
+        <v>13</v>
+      </c>
+      <c r="J56" t="n">
+        <v>29</v>
+      </c>
+      <c r="K56" t="n">
+        <v>136.1436301424048</v>
+      </c>
+      <c r="L56" t="n">
+        <v>16.65587230162938</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.7777863858397653</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.4482758620689655</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.09977424879721759</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.9889932450501349</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>1322</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1028</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1065</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.242557738356456</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.565366561664332</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.6771911766921246</v>
+      </c>
+      <c r="G57" t="n">
+        <v>59</v>
+      </c>
+      <c r="H57" t="n">
+        <v>22.46776199000499</v>
+      </c>
+      <c r="I57" t="n">
+        <v>22</v>
+      </c>
+      <c r="J57" t="n">
+        <v>37</v>
+      </c>
+      <c r="K57" t="n">
+        <v>116.1880803998926</v>
+      </c>
+      <c r="L57" t="n">
+        <v>10.15114532042075</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.7031678830735308</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.5945945945945946</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.044284212992255</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.9788223844052472</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>1323</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1089</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.030151593389078</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.352960416696954</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.6771911766921246</v>
+      </c>
+      <c r="G58" t="n">
+        <v>184</v>
+      </c>
+      <c r="H58" t="n">
+        <v>31.49799771835001</v>
+      </c>
+      <c r="I58" t="n">
+        <v>24</v>
+      </c>
+      <c r="J58" t="n">
+        <v>160</v>
+      </c>
+      <c r="K58" t="n">
+        <v>261.8106071297566</v>
+      </c>
+      <c r="L58" t="n">
+        <v>9.189669231027199</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.8166863283012965</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.2768679365398931</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.932209798581871</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>1324</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1427</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1456</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.8596257490228809</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.1824345723307563</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.6771911766921246</v>
+      </c>
+      <c r="G59" t="n">
+        <v>171</v>
+      </c>
+      <c r="H59" t="n">
+        <v>31.5074523477158</v>
+      </c>
+      <c r="I59" t="n">
+        <v>29</v>
+      </c>
+      <c r="J59" t="n">
+        <v>142</v>
+      </c>
+      <c r="K59" t="n">
+        <v>84.34104327182044</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3.891175576108964</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.8256833877849483</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.2042253521126761</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.261053615870713</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.833795691224916</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>1325</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>731</v>
+      </c>
+      <c r="B60" t="n">
+        <v>780</v>
+      </c>
+      <c r="C60" t="n">
+        <v>856</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5.652824292641261</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5.258788976385748</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.3940353162555133</v>
+      </c>
+      <c r="G60" t="n">
+        <v>125</v>
+      </c>
+      <c r="H60" t="n">
+        <v>92.20504051155251</v>
+      </c>
+      <c r="I60" t="n">
+        <v>49</v>
+      </c>
+      <c r="J60" t="n">
+        <v>76</v>
+      </c>
+      <c r="K60" t="n">
+        <v>462.6380644718589</v>
+      </c>
+      <c r="L60" t="n">
+        <v>23.9049847434008</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.7638786931549796</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.6447368421052632</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.2613685498434837</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.8595066102605859</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>1326</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1717</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1744</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2078</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.244007046071144</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.654600862500501</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.5894061835706437</v>
+      </c>
+      <c r="G61" t="n">
+        <v>361</v>
+      </c>
+      <c r="H61" t="n">
+        <v>170.104062027284</v>
+      </c>
+      <c r="I61" t="n">
+        <v>27</v>
+      </c>
+      <c r="J61" t="n">
+        <v>334</v>
+      </c>
+      <c r="K61" t="n">
+        <v>434.7634120532036</v>
+      </c>
+      <c r="L61" t="n">
+        <v>5.443815607380789</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(2040), 'value': np.float64(0.29634797220171655), 'amplitude': np.float64(0.8857541557723603), 'start_idx': np.int64(2010), 'end_idx': np.int64(2077), 'duration': np.float64(67.0), 'fwhm': np.float64(38.97395912388993), 'rise_time': np.float64(30.0), 'decay_time': np.float64(37.0), 'auc': np.float64(35.79000963770317)}]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.7912489867652672</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.08083832335329341</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.1965201635992063</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.6918818288232769</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>1327</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>153</v>
+      </c>
+      <c r="B62" t="n">
+        <v>178</v>
+      </c>
+      <c r="C62" t="n">
+        <v>214</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5491203419828581</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.1482748403425219</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.4008455016403362</v>
+      </c>
+      <c r="G62" t="n">
+        <v>61</v>
+      </c>
+      <c r="H62" t="n">
+        <v>31.52929343362555</v>
+      </c>
+      <c r="I62" t="n">
+        <v>25</v>
+      </c>
+      <c r="J62" t="n">
+        <v>36</v>
+      </c>
+      <c r="K62" t="n">
+        <v>19.23077056132988</v>
+      </c>
+      <c r="L62" t="n">
+        <v>3.454404965872837</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0.7234540392360429</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.14287618934228</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.9460177594171727</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>1328</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2123</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2165</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2393</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.485502904942904</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.084657403302568</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.4008455016403362</v>
+      </c>
+      <c r="G63" t="n">
+        <v>270</v>
+      </c>
+      <c r="H63" t="n">
+        <v>57.29229552732204</v>
+      </c>
+      <c r="I63" t="n">
+        <v>42</v>
+      </c>
+      <c r="J63" t="n">
+        <v>228</v>
+      </c>
+      <c r="K63" t="n">
+        <v>134.695893659969</v>
+      </c>
+      <c r="L63" t="n">
+        <v>9.344998207721623</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0.8091850216972298</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.1842105263157895</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.5020106705024231</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.7399876224305706</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>1329</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2393</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2448</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2649</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.8871779863039748</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.4863324846636386</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.4008455016403362</v>
+      </c>
+      <c r="G64" t="n">
+        <v>256</v>
+      </c>
+      <c r="H64" t="n">
+        <v>49.93626044004668</v>
+      </c>
+      <c r="I64" t="n">
+        <v>55</v>
+      </c>
+      <c r="J64" t="n">
+        <v>201</v>
+      </c>
+      <c r="K64" t="n">
+        <v>288.6120623533684</v>
+      </c>
+      <c r="L64" t="n">
+        <v>5.581057205848667</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(2548), 'value': np.float64(0.08082999298271465), 'amplitude': np.float64(0.48167549462305087), 'start_idx': np.int64(2531), 'end_idx': np.int64(2575), 'duration': np.float64(44.0), 'fwhm': np.float64(20.101806844672865), 'rise_time': np.float64(17.0), 'decay_time': np.float64(27.0), 'auc': np.float64(13.646689486215394)}]</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0.6765046167072596</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.2736318407960199</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2.3731611717127</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.3067057458751942</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>1330</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1331</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1455</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.225645999325541</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.737318289090291</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.4883277102352502</v>
+      </c>
+      <c r="G65" t="n">
+        <v>149</v>
+      </c>
+      <c r="H65" t="n">
+        <v>41.07232990363559</v>
+      </c>
+      <c r="I65" t="n">
+        <v>25</v>
+      </c>
+      <c r="J65" t="n">
+        <v>124</v>
+      </c>
+      <c r="K65" t="n">
+        <v>192.3557840929545</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.163481701410483</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(1409), 'value': np.float64(1.3134818509498398), 'amplitude': np.float64(1.80180956118509), 'start_idx': np.int64(1405), 'end_idx': np.int64(1454), 'duration': np.float64(49.0), 'fwhm': np.float64(31.71781873542568), 'rise_time': np.float64(4.0), 'decay_time': np.float64(45.0), 'auc': np.float64(51.652003447321775)}]</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0.7809924936011561</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.2016129032258064</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.4188528752797053</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.4266302893617893</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>1331</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1455</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1519</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1853</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4.446396090263435</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.958068380028185</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.4883277102352502</v>
+      </c>
+      <c r="G66" t="n">
+        <v>398</v>
+      </c>
+      <c r="H66" t="n">
+        <v>88.69546333207222</v>
+      </c>
+      <c r="I66" t="n">
+        <v>64</v>
+      </c>
+      <c r="J66" t="n">
+        <v>334</v>
+      </c>
+      <c r="K66" t="n">
+        <v>557.2921930856795</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.31780470238526</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0.7893175103398802</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.1916167664670659</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.5554821369922455</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.6094858170255868</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>1332</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1597</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1627</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1769</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3.452038020195046</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.888610716605271</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.5634273035897749</v>
+      </c>
+      <c r="G67" t="n">
         <v>172</v>
       </c>
-      <c r="H39" t="n">
-        <v>109.3459844898555</v>
-      </c>
-      <c r="I39" t="n">
-        <v>64</v>
-      </c>
-      <c r="J39" t="n">
-        <v>108</v>
-      </c>
-      <c r="K39" t="n">
-        <v>298.870270962215</v>
-      </c>
-      <c r="L39" t="n">
-        <v>13.5266102094365</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>0.6640550625293455</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.5925925925925926</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0.6386630600678183</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0.9297426169724519</v>
-      </c>
-      <c r="T39" t="inlineStr">
+      <c r="H67" t="n">
+        <v>71.509343908044</v>
+      </c>
+      <c r="I67" t="n">
+        <v>30</v>
+      </c>
+      <c r="J67" t="n">
+        <v>142</v>
+      </c>
+      <c r="K67" t="n">
+        <v>269.2429540219912</v>
+      </c>
+      <c r="L67" t="n">
+        <v>13.76742265687881</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0.9258847293589393</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.2112676056338028</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.207698744991161</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.9322257206204736</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>1333</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1945</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2164</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3.906988299808873</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.386536237169617</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.5204520626392563</v>
+      </c>
+      <c r="G68" t="n">
+        <v>219</v>
+      </c>
+      <c r="H68" t="n">
+        <v>194.3034627251684</v>
+      </c>
+      <c r="I68" t="n">
+        <v>81</v>
+      </c>
+      <c r="J68" t="n">
+        <v>138</v>
+      </c>
+      <c r="K68" t="n">
+        <v>534.9963393235914</v>
+      </c>
+      <c r="L68" t="n">
+        <v>13.38978582871865</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0.700119073429228</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.5869565217391305</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.4316119829072784</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.986682963236837</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>1334</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2164</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2286</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2602</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.58185156358335</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.061399500944094</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.5204520626392563</v>
+      </c>
+      <c r="G69" t="n">
+        <v>438</v>
+      </c>
+      <c r="H69" t="n">
+        <v>72.58229351444561</v>
+      </c>
+      <c r="I69" t="n">
+        <v>122</v>
+      </c>
+      <c r="J69" t="n">
+        <v>316</v>
+      </c>
+      <c r="K69" t="n">
+        <v>422.7847946462722</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8.848360124245726</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0.6901132885697293</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.3860759493670886</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.4542350864526366</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.9022360943489081</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>1335</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2219</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2251</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2456</v>
+      </c>
+      <c r="D70" t="n">
+        <v>7.159338822842831</v>
+      </c>
+      <c r="E70" t="n">
+        <v>6.748174117801454</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.4111647050413774</v>
+      </c>
+      <c r="G70" t="n">
+        <v>237</v>
+      </c>
+      <c r="H70" t="n">
+        <v>49.66427780064078</v>
+      </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>205</v>
+      </c>
+      <c r="K70" t="n">
+        <v>595.0145775251142</v>
+      </c>
+      <c r="L70" t="n">
+        <v>41.31651690642048</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0.8389098875014782</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.1560975609756098</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.4113579519502749</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.9385638678681228</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>1336</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>266</v>
+      </c>
+      <c r="B71" t="n">
+        <v>288</v>
+      </c>
+      <c r="C71" t="n">
+        <v>348</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4.285707701751952</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.697716577267818</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.587991124484134</v>
+      </c>
+      <c r="G71" t="n">
+        <v>82</v>
+      </c>
+      <c r="H71" t="n">
+        <v>76.35867415765856</v>
+      </c>
+      <c r="I71" t="n">
+        <v>22</v>
+      </c>
+      <c r="J71" t="n">
+        <v>60</v>
+      </c>
+      <c r="K71" t="n">
+        <v>198.5512700270093</v>
+      </c>
+      <c r="L71" t="n">
+        <v>19.11033191943918</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0.8842479742201331</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.4074936649316497</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.9918048820020489</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>1337</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2319</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2351</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2412</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.655353278697727</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.067362154213593</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.587991124484134</v>
+      </c>
+      <c r="G72" t="n">
+        <v>93</v>
+      </c>
+      <c r="H72" t="n">
+        <v>41.14753564000966</v>
+      </c>
+      <c r="I72" t="n">
+        <v>32</v>
+      </c>
+      <c r="J72" t="n">
+        <v>61</v>
+      </c>
+      <c r="K72" t="n">
+        <v>144.3981323217604</v>
+      </c>
+      <c r="L72" t="n">
+        <v>16.29952840931449</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0.8700436113223203</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.5245901639344263</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.2523058321785385</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.9940108125982142</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>1338</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>161</v>
+      </c>
+      <c r="B73" t="n">
+        <v>200</v>
+      </c>
+      <c r="C73" t="n">
+        <v>290</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.685768536220714</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.052691841205263</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.6330766950154519</v>
+      </c>
+      <c r="G73" t="n">
+        <v>129</v>
+      </c>
+      <c r="H73" t="n">
+        <v>102.7830809020127</v>
+      </c>
+      <c r="I73" t="n">
+        <v>39</v>
+      </c>
+      <c r="J73" t="n">
+        <v>90</v>
+      </c>
+      <c r="K73" t="n">
+        <v>262.7247535327884</v>
+      </c>
+      <c r="L73" t="n">
+        <v>5.753517168075534</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0.6878212878885984</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.1071535257924762</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.6727263580938057</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>1339</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>306</v>
+      </c>
+      <c r="B74" t="n">
+        <v>334</v>
+      </c>
+      <c r="C74" t="n">
+        <v>374</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3.338836167823775</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.855431739416859</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.4834044284069161</v>
+      </c>
+      <c r="G74" t="n">
+        <v>68</v>
+      </c>
+      <c r="H74" t="n">
+        <v>26.49482152442056</v>
+      </c>
+      <c r="I74" t="n">
+        <v>28</v>
+      </c>
+      <c r="J74" t="n">
+        <v>40</v>
+      </c>
+      <c r="K74" t="n">
+        <v>129.7082495520502</v>
+      </c>
+      <c r="L74" t="n">
+        <v>8.050987001468078</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0.8280256833282287</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.2664669227265021</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.9513799598652397</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>n41</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>1340</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1672</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1703</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1763</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3.458733762647824</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.016192112587893</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.442541650059931</v>
+      </c>
+      <c r="G75" t="n">
+        <v>91</v>
+      </c>
+      <c r="H75" t="n">
+        <v>51.38337039613816</v>
+      </c>
+      <c r="I75" t="n">
+        <v>31</v>
+      </c>
+      <c r="J75" t="n">
+        <v>60</v>
+      </c>
+      <c r="K75" t="n">
+        <v>166.4111178533257</v>
+      </c>
+      <c r="L75" t="n">
+        <v>17.10686199211815</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0.8074012861099296</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.2357199901027993</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.8049809241163506</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>n42</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>1341</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>410</v>
+      </c>
+      <c r="B76" t="n">
+        <v>432</v>
+      </c>
+      <c r="C76" t="n">
+        <v>491</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.654880882862172</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.040876200407663</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.6140046824545093</v>
+      </c>
+      <c r="G76" t="n">
+        <v>81</v>
+      </c>
+      <c r="H76" t="n">
+        <v>73.13025238548499</v>
+      </c>
+      <c r="I76" t="n">
+        <v>22</v>
+      </c>
+      <c r="J76" t="n">
+        <v>59</v>
+      </c>
+      <c r="K76" t="n">
+        <v>66.77071666183608</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5.003035485306317</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0.814611528158355</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.3728813559322034</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.3680981151151037</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.6838086965154193</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>n43</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>1342</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2058</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2207</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.523170478156591</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.909165795702082</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.6140046824545093</v>
+      </c>
+      <c r="G77" t="n">
+        <v>195</v>
+      </c>
+      <c r="H77" t="n">
+        <v>113.9802463123522</v>
+      </c>
+      <c r="I77" t="n">
+        <v>46</v>
+      </c>
+      <c r="J77" t="n">
+        <v>149</v>
+      </c>
+      <c r="K77" t="n">
+        <v>265.3129202270912</v>
+      </c>
+      <c r="L77" t="n">
+        <v>7.628048380051347</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0.8694018080842419</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.3087248322147651</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.3948671640288014</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.6895133547278642</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>n43</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>1343</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1182</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1506</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3.840613832232217</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3.199914490301905</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.6406993419303122</v>
+      </c>
+      <c r="G78" t="n">
+        <v>355</v>
+      </c>
+      <c r="H78" t="n">
+        <v>223.3708459142208</v>
+      </c>
+      <c r="I78" t="n">
+        <v>31</v>
+      </c>
+      <c r="J78" t="n">
+        <v>324</v>
+      </c>
+      <c r="K78" t="n">
+        <v>615.4936029239433</v>
+      </c>
+      <c r="L78" t="n">
+        <v>21.11462851417318</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>0.8317238785607248</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.09567901234567901</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.5499944549604088</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.8619442937608112</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>n44</t>
+        </is>
+      </c>
+      <c r="U78" t="n">
+        <v>1344</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1806</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1834</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.612786886529166</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.9720875445988535</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.6406993419303122</v>
+      </c>
+      <c r="G79" t="n">
+        <v>88</v>
+      </c>
+      <c r="H79" t="n">
+        <v>51.14710735827339</v>
+      </c>
+      <c r="I79" t="n">
+        <v>28</v>
+      </c>
+      <c r="J79" t="n">
+        <v>60</v>
+      </c>
+      <c r="K79" t="n">
+        <v>92.57558204931416</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8.866654516473739</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>0.7402397791538866</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.1734306136565817</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.6184853103447876</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>n44</t>
+        </is>
+      </c>
+      <c r="U79" t="n">
+        <v>1345</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1131</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1242</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.160180239504947</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.480829049927487</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.6793511895774599</v>
+      </c>
+      <c r="G80" t="n">
+        <v>147</v>
+      </c>
+      <c r="H80" t="n">
+        <v>54.10183103203121</v>
+      </c>
+      <c r="I80" t="n">
+        <v>36</v>
+      </c>
+      <c r="J80" t="n">
+        <v>111</v>
+      </c>
+      <c r="K80" t="n">
+        <v>142.6366562927092</v>
+      </c>
+      <c r="L80" t="n">
+        <v>5.732704605525835</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(1213), 'value': np.float64(0.47541396026183025), 'amplitude': np.float64(1.1547651498392901), 'start_idx': np.int64(1188), 'end_idx': np.int64(1241), 'duration': np.float64(53.0), 'fwhm': np.float64(23.250963731152297), 'rise_time': np.float64(25.0), 'decay_time': np.float64(28.0), 'auc': np.float64(33.00642873483544)}]</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>0.825673274165155</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.3243243243243243</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.424324413079942</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.3491789070729895</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>n45</t>
+        </is>
+      </c>
+      <c r="U80" t="n">
+        <v>1346</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1686</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1738</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1810</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3.298794773631729</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.619443584054269</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.6793511895774599</v>
+      </c>
+      <c r="G81" t="n">
+        <v>124</v>
+      </c>
+      <c r="H81" t="n">
+        <v>21.93427367541653</v>
+      </c>
+      <c r="I81" t="n">
+        <v>52</v>
+      </c>
+      <c r="J81" t="n">
+        <v>72</v>
+      </c>
+      <c r="K81" t="n">
+        <v>282.1731673734939</v>
+      </c>
+      <c r="L81" t="n">
+        <v>8.754369494564509</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>0.5824338114263298</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.2657580847425474</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.9655046364470505</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>n45</t>
+        </is>
+      </c>
+      <c r="U81" t="n">
+        <v>1347</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1868</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1897</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1981</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.43836600550703</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.75901481592957</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.6793511895774599</v>
+      </c>
+      <c r="G82" t="n">
+        <v>113</v>
+      </c>
+      <c r="H82" t="n">
+        <v>53.36435120581314</v>
+      </c>
+      <c r="I82" t="n">
+        <v>29</v>
+      </c>
+      <c r="J82" t="n">
+        <v>84</v>
+      </c>
+      <c r="K82" t="n">
+        <v>186.5257259742378</v>
+      </c>
+      <c r="L82" t="n">
+        <v>6.470956346184912</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>0.9040517653782638</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.3452380952380952</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.2029484552336546</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.9166758269973676</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>n45</t>
+        </is>
+      </c>
+      <c r="U82" t="n">
+        <v>1348</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2061</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.423107706143375</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.7437565165659155</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.6793511895774599</v>
+      </c>
+      <c r="G83" t="n">
+        <v>80</v>
+      </c>
+      <c r="H83" t="n">
+        <v>43.22641761126283</v>
+      </c>
+      <c r="I83" t="n">
+        <v>28</v>
+      </c>
+      <c r="J83" t="n">
+        <v>52</v>
+      </c>
+      <c r="K83" t="n">
+        <v>77.19574743246986</v>
+      </c>
+      <c r="L83" t="n">
+        <v>3.776655277171259</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>0.7004140005948362</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.1035353312581404</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.8178747540779532</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>n45</t>
+        </is>
+      </c>
+      <c r="U83" t="n">
+        <v>1349</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2458</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2501</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2649</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2.594962425525441</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.078417533371637</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.5165448921538039</v>
+      </c>
+      <c r="G84" t="n">
+        <v>191</v>
+      </c>
+      <c r="H84" t="n">
+        <v>38.14303050276339</v>
+      </c>
+      <c r="I84" t="n">
+        <v>43</v>
+      </c>
+      <c r="J84" t="n">
+        <v>148</v>
+      </c>
+      <c r="K84" t="n">
+        <v>305.3737714124389</v>
+      </c>
+      <c r="L84" t="n">
+        <v>5.388228584354546</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>0.8372549817238379</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.2905405405405405</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.2610174095644563</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.7003935672435001</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>n46</t>
+        </is>
+      </c>
+      <c r="U84" t="n">
+        <v>1350</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2124</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2264</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3.228937716462808</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.81890117824452</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.4100365382182886</v>
+      </c>
+      <c r="G85" t="n">
+        <v>241</v>
+      </c>
+      <c r="H85" t="n">
+        <v>58.29116788782903</v>
+      </c>
+      <c r="I85" t="n">
+        <v>101</v>
+      </c>
+      <c r="J85" t="n">
+        <v>140</v>
+      </c>
+      <c r="K85" t="n">
+        <v>234.4007886801792</v>
+      </c>
+      <c r="L85" t="n">
+        <v>9.589319316554715</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>0.5697175411084073</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.7214285714285714</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.7933117557000271</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.8797714644587761</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>n47</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>1351</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2398</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2429</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2649</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5.41417625580461</v>
+      </c>
+      <c r="E86" t="n">
+        <v>5.004139717586321</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.4100365382182886</v>
+      </c>
+      <c r="G86" t="n">
+        <v>251</v>
+      </c>
+      <c r="H86" t="n">
+        <v>58.93361913251374</v>
+      </c>
+      <c r="I86" t="n">
+        <v>31</v>
+      </c>
+      <c r="J86" t="n">
+        <v>220</v>
+      </c>
+      <c r="K86" t="n">
+        <v>433.8862009673267</v>
+      </c>
+      <c r="L86" t="n">
+        <v>16.07905432437196</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>0.7748126179489729</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.1409090909090909</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.5424534499797329</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.6186096633906836</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>n47</t>
+        </is>
+      </c>
+      <c r="U86" t="n">
+        <v>1352</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2525</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2560</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2649</v>
+      </c>
+      <c r="D87" t="n">
+        <v>6.231880479382916</v>
+      </c>
+      <c r="E87" t="n">
+        <v>5.825542137997648</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.4063383413852688</v>
+      </c>
+      <c r="G87" t="n">
+        <v>124</v>
+      </c>
+      <c r="H87" t="n">
+        <v>59.96229132726558</v>
+      </c>
+      <c r="I87" t="n">
+        <v>35</v>
+      </c>
+      <c r="J87" t="n">
+        <v>89</v>
+      </c>
+      <c r="K87" t="n">
+        <v>480.8671988938405</v>
+      </c>
+      <c r="L87" t="n">
+        <v>36.53156358613368</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>0.8447044928929865</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.3932584269662922</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.149806222210081</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.9801634332823269</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>n48</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>1353</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>635</v>
+      </c>
+      <c r="B88" t="n">
+        <v>670</v>
+      </c>
+      <c r="C88" t="n">
+        <v>760</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.097700405387723</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.6089768979608785</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.4887235074268447</v>
+      </c>
+      <c r="G88" t="n">
+        <v>125</v>
+      </c>
+      <c r="H88" t="n">
+        <v>58.61269088718382</v>
+      </c>
+      <c r="I88" t="n">
+        <v>35</v>
+      </c>
+      <c r="J88" t="n">
+        <v>90</v>
+      </c>
+      <c r="K88" t="n">
+        <v>92.93920678096713</v>
+      </c>
+      <c r="L88" t="n">
+        <v>5.126792130226379</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>0.8620816792334332</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.2063867884879165</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.8015545348629609</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>n51</t>
+        </is>
+      </c>
+      <c r="U88" t="n">
+        <v>1354</v>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1959</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.078942335029233</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.5902188276023884</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.4887235074268447</v>
+      </c>
+      <c r="G89" t="n">
+        <v>81</v>
+      </c>
+      <c r="H89" t="n">
+        <v>61.90573420191936</v>
+      </c>
+      <c r="I89" t="n">
+        <v>28</v>
+      </c>
+      <c r="J89" t="n">
+        <v>53</v>
+      </c>
+      <c r="K89" t="n">
+        <v>47.99495304408046</v>
+      </c>
+      <c r="L89" t="n">
+        <v>5.039182863599415</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>0.6862092564421016</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.5283018867924528</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.09852908240535063</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.8549001712257217</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>n51</t>
+        </is>
+      </c>
+      <c r="U89" t="n">
+        <v>1355</v>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>115</v>
+      </c>
+      <c r="C90" t="n">
+        <v>192</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.283781691752331</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.5851678927391498</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.6986137990131813</v>
+      </c>
+      <c r="G90" t="n">
+        <v>104</v>
+      </c>
+      <c r="H90" t="n">
+        <v>50.00636072592297</v>
+      </c>
+      <c r="I90" t="n">
+        <v>27</v>
+      </c>
+      <c r="J90" t="n">
+        <v>77</v>
+      </c>
+      <c r="K90" t="n">
+        <v>86.32073091426761</v>
+      </c>
+      <c r="L90" t="n">
+        <v>4.400452475218414</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>0.8383221157830336</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.3506493506493507</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.1338573494997996</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.9241172195977152</v>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>n52</t>
+        </is>
+      </c>
+      <c r="U90" t="n">
+        <v>1356</v>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>323</v>
+      </c>
+      <c r="B91" t="n">
+        <v>349</v>
+      </c>
+      <c r="C91" t="n">
+        <v>442</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3.843137092577212</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3.14452329356403</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.6986137990131813</v>
+      </c>
+      <c r="G91" t="n">
+        <v>119</v>
+      </c>
+      <c r="H91" t="n">
+        <v>165.040254873509</v>
+      </c>
+      <c r="I91" t="n">
+        <v>26</v>
+      </c>
+      <c r="J91" t="n">
+        <v>93</v>
+      </c>
+      <c r="K91" t="n">
+        <v>295.6579792400485</v>
+      </c>
+      <c r="L91" t="n">
+        <v>13.17322270623071</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>0.9085811686853953</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.2795698924731183</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.3107224076711002</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.9455181349570544</v>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>n52</t>
+        </is>
+      </c>
+      <c r="U91" t="n">
+        <v>1357</v>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>442</v>
+      </c>
+      <c r="B92" t="n">
+        <v>469</v>
+      </c>
+      <c r="C92" t="n">
+        <v>530</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.504135310314361</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.8055215113011793</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.6986137990131813</v>
+      </c>
+      <c r="G92" t="n">
+        <v>88</v>
+      </c>
+      <c r="H92" t="n">
+        <v>24.82720387423274</v>
+      </c>
+      <c r="I92" t="n">
+        <v>27</v>
+      </c>
+      <c r="J92" t="n">
+        <v>61</v>
+      </c>
+      <c r="K92" t="n">
+        <v>92.6634738327711</v>
+      </c>
+      <c r="L92" t="n">
+        <v>5.155764404383769</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>0.8443331896412367</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.4426229508196721</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.2726605199009944</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.8682161166696076</v>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>n52</t>
+        </is>
+      </c>
+      <c r="U92" t="n">
+        <v>1358</v>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2238</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2270</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2345</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.070224423401256</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.371610624388074</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.6986137990131813</v>
+      </c>
+      <c r="G93" t="n">
+        <v>107</v>
+      </c>
+      <c r="H93" t="n">
+        <v>36.72405762872404</v>
+      </c>
+      <c r="I93" t="n">
+        <v>32</v>
+      </c>
+      <c r="J93" t="n">
+        <v>75</v>
+      </c>
+      <c r="K93" t="n">
+        <v>135.2561733866224</v>
+      </c>
+      <c r="L93" t="n">
+        <v>7.096163036706685</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>0.8375644833672942</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.4266666666666667</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.1541628739967975</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.943033047622739</v>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>n52</t>
+        </is>
+      </c>
+      <c r="U93" t="n">
+        <v>1359</v>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1522</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1537</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1559</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2.43659327081373</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.937579021894267</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.4990142489194627</v>
+      </c>
+      <c r="G94" t="n">
+        <v>37</v>
+      </c>
+      <c r="H94" t="n">
+        <v>16.75364358822844</v>
+      </c>
+      <c r="I94" t="n">
+        <v>15</v>
+      </c>
+      <c r="J94" t="n">
+        <v>22</v>
+      </c>
+      <c r="K94" t="n">
+        <v>74.77839304551942</v>
+      </c>
+      <c r="L94" t="n">
+        <v>8.256583318313201</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>0.6670611574273703</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.06566238306257807</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.9323894374155176</v>
+      </c>
+      <c r="T94" t="inlineStr">
         <is>
           <t>n53</t>
         </is>
       </c>
-      <c r="U39" t="n">
-        <v>686</v>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
+      <c r="U94" t="n">
+        <v>1360</v>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1559</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1576</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1599</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.980855028159443</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.48184077923998</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.4990142489194627</v>
+      </c>
+      <c r="G95" t="n">
+        <v>40</v>
+      </c>
+      <c r="H95" t="n">
+        <v>18.85946725862777</v>
+      </c>
+      <c r="I95" t="n">
+        <v>17</v>
+      </c>
+      <c r="J95" t="n">
+        <v>23</v>
+      </c>
+      <c r="K95" t="n">
+        <v>61.12446440012981</v>
+      </c>
+      <c r="L95" t="n">
+        <v>6.712279302994257</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>0.7358927893793417</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.1575194995134408</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.9481974535653305</v>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>n53</t>
+        </is>
+      </c>
+      <c r="U95" t="n">
+        <v>1361</v>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930tangsuiCellVedio22024-12-04210940trace/processed_No.29790930tangsuiCellVedio22024-12-04210940trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930tangsuiCellVedio22024-12-04210940trace/processed_No.29790930tangsuiCellVedio22024-12-04210940trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X95"/>
+  <dimension ref="A1:X100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1268</v>
+        <v>1329</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1269</v>
+        <v>1330</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1270</v>
+        <v>1331</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1271</v>
+        <v>1332</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1272</v>
+        <v>1333</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1273</v>
+        <v>1334</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1274</v>
+        <v>1335</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1275</v>
+        <v>1336</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1276</v>
+        <v>1337</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1277</v>
+        <v>1338</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1279</v>
+        <v>1340</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1280</v>
+        <v>1341</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1281</v>
+        <v>1342</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1282</v>
+        <v>1343</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1283</v>
+        <v>1344</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1284</v>
+        <v>1345</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>1285</v>
+        <v>1346</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>1286</v>
+        <v>1347</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>1287</v>
+        <v>1348</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>1288</v>
+        <v>1349</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>1289</v>
+        <v>1350</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>1290</v>
+        <v>1351</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>1291</v>
+        <v>1352</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="U26" t="n">
-        <v>1292</v>
+        <v>1353</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="U27" t="n">
-        <v>1293</v>
+        <v>1354</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="U28" t="n">
-        <v>1294</v>
+        <v>1355</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>1295</v>
+        <v>1356</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>1296</v>
+        <v>1357</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="U31" t="n">
-        <v>1297</v>
+        <v>1358</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="U32" t="n">
-        <v>1298</v>
+        <v>1359</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
+        <v>114</v>
+      </c>
+      <c r="B33" t="n">
+        <v>144</v>
+      </c>
+      <c r="C33" t="n">
         <v>198</v>
       </c>
-      <c r="B33" t="n">
-        <v>217</v>
-      </c>
-      <c r="C33" t="n">
-        <v>263</v>
-      </c>
       <c r="D33" t="n">
-        <v>3.274514398064333</v>
+        <v>5.507000271261867</v>
       </c>
       <c r="E33" t="n">
-        <v>2.77585319047898</v>
+        <v>5.008339063676513</v>
       </c>
       <c r="F33" t="n">
         <v>-0.4986612075853538</v>
       </c>
       <c r="G33" t="n">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="H33" t="n">
-        <v>15.84789575302958</v>
+        <v>102.7741076304939</v>
       </c>
       <c r="I33" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J33" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K33" t="n">
-        <v>138.9287440126992</v>
+        <v>342.1710073252611</v>
       </c>
       <c r="L33" t="n">
-        <v>15.98609697889346</v>
+        <v>26.88503689317269</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,16 +3272,16 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.8580501916863358</v>
+        <v>0.671744427408947</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.4130434782608696</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R33" t="n">
-        <v>0.3837542738300521</v>
+        <v>0.07622155439145957</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9641091059303812</v>
+        <v>0.9898710080653967</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="U33" t="n">
-        <v>1299</v>
+        <v>1360</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>321</v>
+        <v>198</v>
       </c>
       <c r="B34" t="n">
-        <v>348</v>
+        <v>217</v>
       </c>
       <c r="C34" t="n">
-        <v>463</v>
+        <v>263</v>
       </c>
       <c r="D34" t="n">
-        <v>1.957385858707684</v>
+        <v>3.274514398064333</v>
       </c>
       <c r="E34" t="n">
-        <v>1.45872465112233</v>
+        <v>2.77585319047898</v>
       </c>
       <c r="F34" t="n">
         <v>-0.4986612075853538</v>
       </c>
       <c r="G34" t="n">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="H34" t="n">
-        <v>23.44193406991388</v>
+        <v>15.84789575302958</v>
       </c>
       <c r="I34" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J34" t="n">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="K34" t="n">
-        <v>142.5564196234169</v>
+        <v>138.9287440126992</v>
       </c>
       <c r="L34" t="n">
-        <v>9.555908558811877</v>
+        <v>15.98609697889346</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,16 +3358,16 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.8338517338061889</v>
+        <v>0.8580501916863358</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.2347826086956522</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="R34" t="n">
-        <v>0.467546629858502</v>
+        <v>0.3837542738300521</v>
       </c>
       <c r="S34" t="n">
-        <v>0.840848533229661</v>
+        <v>0.9641091059303812</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="U34" t="n">
-        <v>1300</v>
+        <v>1361</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1465</v>
+        <v>321</v>
       </c>
       <c r="B35" t="n">
-        <v>1500</v>
+        <v>348</v>
       </c>
       <c r="C35" t="n">
-        <v>1667</v>
+        <v>463</v>
       </c>
       <c r="D35" t="n">
-        <v>3.390411934213972</v>
+        <v>1.957385858707684</v>
       </c>
       <c r="E35" t="n">
-        <v>2.891750726628619</v>
+        <v>1.45872465112233</v>
       </c>
       <c r="F35" t="n">
         <v>-0.4986612075853538</v>
       </c>
       <c r="G35" t="n">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="H35" t="n">
-        <v>60.64334499195957</v>
+        <v>23.44193406991388</v>
       </c>
       <c r="I35" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J35" t="n">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="K35" t="n">
-        <v>247.1040199456734</v>
+        <v>142.5564196234169</v>
       </c>
       <c r="L35" t="n">
-        <v>16.55190583702465</v>
+        <v>9.555908558811877</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,16 +3444,16 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.8974121364337673</v>
+        <v>0.8338517338061889</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.2095808383233533</v>
+        <v>0.2347826086956522</v>
       </c>
       <c r="R35" t="n">
-        <v>0.4376271985083631</v>
+        <v>0.467546629858502</v>
       </c>
       <c r="S35" t="n">
-        <v>0.8817869953262056</v>
+        <v>0.840848533229661</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="U35" t="n">
-        <v>1301</v>
+        <v>1362</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>81</v>
+        <v>1465</v>
       </c>
       <c r="B36" t="n">
-        <v>110</v>
+        <v>1500</v>
       </c>
       <c r="C36" t="n">
-        <v>162</v>
+        <v>1667</v>
       </c>
       <c r="D36" t="n">
-        <v>2.041299418930168</v>
+        <v>3.390411934213972</v>
       </c>
       <c r="E36" t="n">
-        <v>1.507176874129779</v>
+        <v>2.891750726628619</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5341225448003896</v>
+        <v>-0.4986612075853538</v>
       </c>
       <c r="G36" t="n">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="H36" t="n">
-        <v>40.62787156344019</v>
+        <v>60.64334499195957</v>
       </c>
       <c r="I36" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J36" t="n">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="K36" t="n">
-        <v>89.33942518651916</v>
+        <v>247.1040199456734</v>
       </c>
       <c r="L36" t="n">
-        <v>4.967543441468577</v>
+        <v>16.55190583702465</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.813406912511035</v>
+        <v>0.8974121364337673</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.5576923076923077</v>
+        <v>0.2095808383233533</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1982477069433107</v>
+        <v>0.4376271985083631</v>
       </c>
       <c r="S36" t="n">
-        <v>0.938634411694661</v>
+        <v>0.8817869953262056</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>1302</v>
+        <v>1363</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B37" t="n">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C37" t="n">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D37" t="n">
-        <v>1.065529641134758</v>
+        <v>2.041299418930168</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4624620827303913</v>
+        <v>1.507176874129779</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.6030675584043663</v>
+        <v>-0.5341225448003896</v>
       </c>
       <c r="G37" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H37" t="n">
-        <v>26.52425013780201</v>
+        <v>40.62787156344019</v>
       </c>
       <c r="I37" t="n">
         <v>29</v>
       </c>
       <c r="J37" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K37" t="n">
-        <v>64.36296933701358</v>
+        <v>89.33942518651916</v>
       </c>
       <c r="L37" t="n">
-        <v>4.826876075888112</v>
+        <v>4.967543441468577</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.6483505717405973</v>
+        <v>0.813406912511035</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.5</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="R37" t="n">
-        <v>0.3838473922946941</v>
+        <v>0.1982477069433107</v>
       </c>
       <c r="S37" t="n">
-        <v>0.3447084592276698</v>
+        <v>0.938634411694661</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>1303</v>
+        <v>1364</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1332</v>
+        <v>59</v>
       </c>
       <c r="B38" t="n">
-        <v>1352</v>
+        <v>88</v>
       </c>
       <c r="C38" t="n">
-        <v>1522</v>
+        <v>146</v>
       </c>
       <c r="D38" t="n">
-        <v>2.839425043329144</v>
+        <v>1.065529641134758</v>
       </c>
       <c r="E38" t="n">
-        <v>2.236357484924778</v>
+        <v>0.4624620827303913</v>
       </c>
       <c r="F38" t="n">
         <v>-0.6030675584043663</v>
       </c>
       <c r="G38" t="n">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="H38" t="n">
-        <v>15.26221001711724</v>
+        <v>26.52425013780201</v>
       </c>
       <c r="I38" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J38" t="n">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="K38" t="n">
-        <v>220.7903060356404</v>
+        <v>64.36296933701358</v>
       </c>
       <c r="L38" t="n">
-        <v>12.86266686708687</v>
+        <v>4.826876075888112</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,16 +3702,16 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.7123205210228875</v>
+        <v>0.6483505717405973</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.5</v>
       </c>
       <c r="R38" t="n">
-        <v>0.6104849923329149</v>
+        <v>0.3838473922946941</v>
       </c>
       <c r="S38" t="n">
-        <v>0.6318579432719846</v>
+        <v>0.3447084592276698</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="U38" t="n">
-        <v>1304</v>
+        <v>1365</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2575</v>
+        <v>1332</v>
       </c>
       <c r="B39" t="n">
-        <v>2599</v>
+        <v>1352</v>
       </c>
       <c r="C39" t="n">
-        <v>2649</v>
+        <v>1522</v>
       </c>
       <c r="D39" t="n">
-        <v>1.706407130043124</v>
+        <v>2.839425043329144</v>
       </c>
       <c r="E39" t="n">
-        <v>1.103339571638758</v>
+        <v>2.236357484924778</v>
       </c>
       <c r="F39" t="n">
         <v>-0.6030675584043663</v>
       </c>
       <c r="G39" t="n">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="H39" t="n">
-        <v>48.70677391826621</v>
+        <v>15.26221001711724</v>
       </c>
       <c r="I39" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J39" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="K39" t="n">
-        <v>87.26828824651119</v>
+        <v>220.7903060356404</v>
       </c>
       <c r="L39" t="n">
-        <v>7.730067220803258</v>
+        <v>12.86266686708687</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,16 +3788,16 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.8184493270055524</v>
+        <v>0.7123205210228875</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.48</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="R39" t="n">
-        <v>0.405040037455818</v>
+        <v>0.6104849923329149</v>
       </c>
       <c r="S39" t="n">
-        <v>0.8410414020475795</v>
+        <v>0.6318579432719846</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="U39" t="n">
-        <v>1305</v>
+        <v>1366</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>2575</v>
       </c>
       <c r="B40" t="n">
-        <v>9</v>
+        <v>2599</v>
       </c>
       <c r="C40" t="n">
-        <v>29</v>
+        <v>2649</v>
       </c>
       <c r="D40" t="n">
-        <v>2.023421435039549</v>
+        <v>1.706407130043124</v>
       </c>
       <c r="E40" t="n">
-        <v>1.532131231952004</v>
+        <v>1.103339571638758</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4912902030875447</v>
+        <v>-0.6030675584043663</v>
       </c>
       <c r="G40" t="n">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="H40" t="n">
-        <v>13.85651957888364</v>
+        <v>48.70677391826621</v>
       </c>
       <c r="I40" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J40" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K40" t="n">
-        <v>46.032771620129</v>
+        <v>87.26828824651119</v>
       </c>
       <c r="L40" t="n">
-        <v>7.414844755331749</v>
+        <v>7.730067220803258</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.8526881250302241</v>
+        <v>0.8184493270055524</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1841475875278588</v>
+        <v>0.405040037455818</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9777333742226134</v>
+        <v>0.8410414020475795</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>1306</v>
+        <v>1367</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1158</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>1204</v>
+        <v>9</v>
       </c>
       <c r="C41" t="n">
-        <v>1300</v>
+        <v>29</v>
       </c>
       <c r="D41" t="n">
-        <v>2.94898047695234</v>
+        <v>2.023421435039549</v>
       </c>
       <c r="E41" t="n">
-        <v>2.350371497665439</v>
+        <v>1.532131231952004</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.5986089792869012</v>
+        <v>-0.4912902030875447</v>
       </c>
       <c r="G41" t="n">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8518509069359</v>
+        <v>13.85651957888364</v>
       </c>
       <c r="I41" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="J41" t="n">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="K41" t="n">
-        <v>284.5878758396643</v>
+        <v>46.032771620129</v>
       </c>
       <c r="L41" t="n">
-        <v>7.97029818113084</v>
+        <v>7.414844755331749</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,24 +3960,24 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.7154404299309536</v>
+        <v>0.8526881250302241</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="R41" t="n">
-        <v>0.09469397838988003</v>
+        <v>0.1841475875278588</v>
       </c>
       <c r="S41" t="n">
-        <v>0.9078210368379988</v>
+        <v>0.9777333742226134</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>1307</v>
+        <v>1368</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1488</v>
+        <v>1158</v>
       </c>
       <c r="B42" t="n">
-        <v>1515</v>
+        <v>1204</v>
       </c>
       <c r="C42" t="n">
-        <v>1610</v>
+        <v>1300</v>
       </c>
       <c r="D42" t="n">
-        <v>2.188428020447354</v>
+        <v>2.94898047695234</v>
       </c>
       <c r="E42" t="n">
-        <v>1.589819041160453</v>
+        <v>2.350371497665439</v>
       </c>
       <c r="F42" t="n">
         <v>-0.5986089792869012</v>
       </c>
       <c r="G42" t="n">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="H42" t="n">
-        <v>35.4224869864579</v>
+        <v>100.8518509069359</v>
       </c>
       <c r="I42" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J42" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K42" t="n">
-        <v>132.3975667409071</v>
+        <v>284.5878758396643</v>
       </c>
       <c r="L42" t="n">
-        <v>5.914730194800542</v>
+        <v>7.97029818113084</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,16 +4046,16 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.9495918808440602</v>
+        <v>0.7154404299309536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.2842105263157895</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2489741580393983</v>
+        <v>0.09469397838988003</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9850018729683517</v>
+        <v>0.9078210368379988</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="U42" t="n">
-        <v>1308</v>
+        <v>1369</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>82</v>
+        <v>1488</v>
       </c>
       <c r="B43" t="n">
-        <v>138</v>
+        <v>1515</v>
       </c>
       <c r="C43" t="n">
-        <v>213</v>
+        <v>1610</v>
       </c>
       <c r="D43" t="n">
-        <v>3.042023456959184</v>
+        <v>2.188428020447354</v>
       </c>
       <c r="E43" t="n">
-        <v>2.448287629212175</v>
+        <v>1.589819041160453</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.5937358277470087</v>
+        <v>-0.5986089792869012</v>
       </c>
       <c r="G43" t="n">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H43" t="n">
-        <v>77.92836530204342</v>
+        <v>35.4224869864579</v>
       </c>
       <c r="I43" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="J43" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="K43" t="n">
-        <v>224.6487813665622</v>
+        <v>132.3975667409071</v>
       </c>
       <c r="L43" t="n">
-        <v>8.619076222208665</v>
+        <v>5.914730194800542</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.7484371802371816</v>
+        <v>0.9495918808440602</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.7466666666666667</v>
+        <v>0.2842105263157895</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1915634359907892</v>
+        <v>0.2489741580393983</v>
       </c>
       <c r="S43" t="n">
-        <v>0.9639636763337599</v>
+        <v>0.9850018729683517</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>1309</v>
+        <v>1370</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="B44" t="n">
-        <v>291</v>
+        <v>138</v>
       </c>
       <c r="C44" t="n">
-        <v>400</v>
+        <v>213</v>
       </c>
       <c r="D44" t="n">
-        <v>2.825306537126366</v>
+        <v>3.042023456959184</v>
       </c>
       <c r="E44" t="n">
-        <v>2.231570709379358</v>
+        <v>2.448287629212175</v>
       </c>
       <c r="F44" t="n">
         <v>-0.5937358277470087</v>
       </c>
       <c r="G44" t="n">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H44" t="n">
-        <v>46.03199935897914</v>
+        <v>77.92836530204342</v>
       </c>
       <c r="I44" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="J44" t="n">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="K44" t="n">
-        <v>185.5807346981637</v>
+        <v>224.6487813665622</v>
       </c>
       <c r="L44" t="n">
-        <v>8.005044253977726</v>
+        <v>8.619076222208665</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,16 +4218,16 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.9610752357431961</v>
+        <v>0.7484371802371816</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.2568807339449541</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="R44" t="n">
-        <v>0.5044424549587051</v>
+        <v>0.1915634359907892</v>
       </c>
       <c r="S44" t="n">
-        <v>0.981898244791838</v>
+        <v>0.9639636763337599</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="U44" t="n">
-        <v>1310</v>
+        <v>1371</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>573</v>
+        <v>263</v>
       </c>
       <c r="B45" t="n">
-        <v>602</v>
+        <v>291</v>
       </c>
       <c r="C45" t="n">
-        <v>694</v>
+        <v>400</v>
       </c>
       <c r="D45" t="n">
-        <v>2.861824247239638</v>
+        <v>2.825306537126366</v>
       </c>
       <c r="E45" t="n">
-        <v>2.268088419492629</v>
+        <v>2.231570709379358</v>
       </c>
       <c r="F45" t="n">
         <v>-0.5937358277470087</v>
       </c>
       <c r="G45" t="n">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="H45" t="n">
-        <v>31.18423941802519</v>
+        <v>46.03199935897914</v>
       </c>
       <c r="I45" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J45" t="n">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="K45" t="n">
-        <v>154.4937048174944</v>
+        <v>185.5807346981637</v>
       </c>
       <c r="L45" t="n">
-        <v>8.108511216471641</v>
+        <v>8.005044253977726</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.8878778565151458</v>
+        <v>0.9610752357431961</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.3152173913043478</v>
+        <v>0.2568807339449541</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2991663009641835</v>
+        <v>0.5044424549587051</v>
       </c>
       <c r="S45" t="n">
-        <v>0.856266896150758</v>
+        <v>0.981898244791838</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="U45" t="n">
-        <v>1311</v>
+        <v>1372</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
+        <v>573</v>
+      </c>
+      <c r="B46" t="n">
+        <v>602</v>
+      </c>
+      <c r="C46" t="n">
         <v>694</v>
       </c>
-      <c r="B46" t="n">
-        <v>723</v>
-      </c>
-      <c r="C46" t="n">
-        <v>799</v>
-      </c>
       <c r="D46" t="n">
-        <v>2.753258992792185</v>
+        <v>2.861824247239638</v>
       </c>
       <c r="E46" t="n">
-        <v>2.159523165045176</v>
+        <v>2.268088419492629</v>
       </c>
       <c r="F46" t="n">
         <v>-0.5937358277470087</v>
       </c>
       <c r="G46" t="n">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H46" t="n">
-        <v>62.70629571751749</v>
+        <v>31.18423941802519</v>
       </c>
       <c r="I46" t="n">
         <v>29</v>
       </c>
       <c r="J46" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K46" t="n">
-        <v>191.8932503054675</v>
+        <v>154.4937048174944</v>
       </c>
       <c r="L46" t="n">
-        <v>7.800909313854677</v>
+        <v>8.108511216471641</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,16 +4390,16 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.8513660421818559</v>
+        <v>0.8878778565151458</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.3815789473684211</v>
+        <v>0.3152173913043478</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4675751598122204</v>
+        <v>0.2991663009641835</v>
       </c>
       <c r="S46" t="n">
-        <v>0.7772901093275599</v>
+        <v>0.856266896150758</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="U46" t="n">
-        <v>1312</v>
+        <v>1373</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>58</v>
+        <v>694</v>
       </c>
       <c r="B47" t="n">
-        <v>86</v>
+        <v>723</v>
       </c>
       <c r="C47" t="n">
-        <v>142</v>
+        <v>799</v>
       </c>
       <c r="D47" t="n">
-        <v>1.746882934074248</v>
+        <v>2.753258992792185</v>
       </c>
       <c r="E47" t="n">
-        <v>1.061040510893796</v>
+        <v>2.159523165045176</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.685842423180452</v>
+        <v>-0.5937358277470087</v>
       </c>
       <c r="G47" t="n">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="H47" t="n">
-        <v>45.78248639133008</v>
+        <v>62.70629571751749</v>
       </c>
       <c r="I47" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J47" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="K47" t="n">
-        <v>93.94540922556394</v>
+        <v>191.8932503054675</v>
       </c>
       <c r="L47" t="n">
-        <v>7.158404585872451</v>
+        <v>7.800909313854677</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,24 +4476,24 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.8327057733061718</v>
+        <v>0.8513660421818559</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.5</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="R47" t="n">
-        <v>0.3461359949076181</v>
+        <v>0.4675751598122204</v>
       </c>
       <c r="S47" t="n">
-        <v>0.8804822237767862</v>
+        <v>0.7772901093275599</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>1313</v>
+        <v>1374</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
+        <v>58</v>
+      </c>
+      <c r="B48" t="n">
+        <v>86</v>
+      </c>
+      <c r="C48" t="n">
         <v>142</v>
       </c>
-      <c r="B48" t="n">
-        <v>173</v>
-      </c>
-      <c r="C48" t="n">
-        <v>222</v>
-      </c>
       <c r="D48" t="n">
-        <v>2.04977189894357</v>
+        <v>1.746882934074248</v>
       </c>
       <c r="E48" t="n">
-        <v>1.363929475763118</v>
+        <v>1.061040510893796</v>
       </c>
       <c r="F48" t="n">
         <v>-0.685842423180452</v>
       </c>
       <c r="G48" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H48" t="n">
-        <v>42.40468799702043</v>
+        <v>45.78248639133008</v>
       </c>
       <c r="I48" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J48" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K48" t="n">
-        <v>116.3136103678166</v>
+        <v>93.94540922556394</v>
       </c>
       <c r="L48" t="n">
-        <v>8.399587788729569</v>
+        <v>7.158404585872451</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,16 +4562,16 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.7244420100879607</v>
+        <v>0.8327057733061718</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.6326530612244898</v>
+        <v>0.5</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1290506789132854</v>
+        <v>0.3461359949076181</v>
       </c>
       <c r="S48" t="n">
-        <v>0.9446280470379916</v>
+        <v>0.8804822237767862</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         </is>
       </c>
       <c r="U48" t="n">
-        <v>1314</v>
+        <v>1375</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>285</v>
+        <v>142</v>
       </c>
       <c r="B49" t="n">
-        <v>312</v>
+        <v>173</v>
       </c>
       <c r="C49" t="n">
-        <v>369</v>
+        <v>222</v>
       </c>
       <c r="D49" t="n">
-        <v>2.445296680320113</v>
+        <v>2.04977189894357</v>
       </c>
       <c r="E49" t="n">
-        <v>1.759454257139662</v>
+        <v>1.363929475763118</v>
       </c>
       <c r="F49" t="n">
         <v>-0.685842423180452</v>
       </c>
       <c r="G49" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H49" t="n">
-        <v>22.96972558901092</v>
+        <v>42.40468799702043</v>
       </c>
       <c r="I49" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J49" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K49" t="n">
-        <v>150.7281920968055</v>
+        <v>116.3136103678166</v>
       </c>
       <c r="L49" t="n">
-        <v>10.02037550930599</v>
+        <v>8.399587788729569</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,16 +4648,16 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.8524494829309839</v>
+        <v>0.7244420100879607</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="R49" t="n">
-        <v>0.2332017450382177</v>
+        <v>0.1290506789132854</v>
       </c>
       <c r="S49" t="n">
-        <v>0.980636495515112</v>
+        <v>0.9446280470379916</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         </is>
       </c>
       <c r="U49" t="n">
-        <v>1315</v>
+        <v>1376</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
+        <v>285</v>
+      </c>
+      <c r="B50" t="n">
+        <v>312</v>
+      </c>
+      <c r="C50" t="n">
         <v>369</v>
       </c>
-      <c r="B50" t="n">
-        <v>397</v>
-      </c>
-      <c r="C50" t="n">
-        <v>466</v>
-      </c>
       <c r="D50" t="n">
-        <v>1.777186983353605</v>
+        <v>2.445296680320113</v>
       </c>
       <c r="E50" t="n">
-        <v>1.091344560173153</v>
+        <v>1.759454257139662</v>
       </c>
       <c r="F50" t="n">
         <v>-0.685842423180452</v>
       </c>
       <c r="G50" t="n">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H50" t="n">
-        <v>28.05257918562597</v>
+        <v>22.96972558901092</v>
       </c>
       <c r="I50" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J50" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K50" t="n">
-        <v>95.21726753607632</v>
+        <v>150.7281920968055</v>
       </c>
       <c r="L50" t="n">
-        <v>7.282584999511222</v>
+        <v>10.02037550930599</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,16 +4734,16 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.8524939561224975</v>
+        <v>0.8524494829309839</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.4057971014492754</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="R50" t="n">
-        <v>0.3908105191534064</v>
+        <v>0.2332017450382177</v>
       </c>
       <c r="S50" t="n">
-        <v>0.8187160358921589</v>
+        <v>0.980636495515112</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="U50" t="n">
-        <v>1316</v>
+        <v>1377</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1113</v>
+        <v>369</v>
       </c>
       <c r="B51" t="n">
-        <v>1134</v>
+        <v>397</v>
       </c>
       <c r="C51" t="n">
-        <v>1220</v>
+        <v>466</v>
       </c>
       <c r="D51" t="n">
-        <v>2.619458519000426</v>
+        <v>1.777186983353605</v>
       </c>
       <c r="E51" t="n">
-        <v>1.933616095819974</v>
+        <v>1.091344560173153</v>
       </c>
       <c r="F51" t="n">
         <v>-0.685842423180452</v>
       </c>
       <c r="G51" t="n">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H51" t="n">
-        <v>14.33086582207284</v>
+        <v>28.05257918562597</v>
       </c>
       <c r="I51" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J51" t="n">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="K51" t="n">
-        <v>235.5842400561191</v>
+        <v>95.21726753607632</v>
       </c>
       <c r="L51" t="n">
-        <v>10.73405865336499</v>
+        <v>7.282584999511222</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,16 +4820,16 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.6161064445798797</v>
+        <v>0.8524939561224975</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.2441860465116279</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1063951910516917</v>
+        <v>0.3908105191534064</v>
       </c>
       <c r="S51" t="n">
-        <v>0.3514986922653939</v>
+        <v>0.8187160358921589</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         </is>
       </c>
       <c r="U51" t="n">
-        <v>1317</v>
+        <v>1378</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4857,40 +4857,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>852</v>
+        <v>1113</v>
       </c>
       <c r="B52" t="n">
-        <v>879</v>
+        <v>1134</v>
       </c>
       <c r="C52" t="n">
-        <v>957</v>
+        <v>1161</v>
       </c>
       <c r="D52" t="n">
-        <v>2.714826307427343</v>
+        <v>2.619458519000426</v>
       </c>
       <c r="E52" t="n">
-        <v>2.279638546881367</v>
+        <v>1.933616095819974</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.4351877605459754</v>
+        <v>-0.685842423180452</v>
       </c>
       <c r="G52" t="n">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="H52" t="n">
-        <v>34.72502754187553</v>
+        <v>14.33086582207284</v>
       </c>
       <c r="I52" t="n">
+        <v>21</v>
+      </c>
+      <c r="J52" t="n">
         <v>27</v>
       </c>
-      <c r="J52" t="n">
-        <v>78</v>
-      </c>
       <c r="K52" t="n">
-        <v>142.7890037452516</v>
+        <v>110.3227938752727</v>
       </c>
       <c r="L52" t="n">
-        <v>16.16193335663998</v>
+        <v>10.73405865336499</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4906,24 +4906,24 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.9227795236882899</v>
+        <v>0.6236299396775766</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="R52" t="n">
-        <v>0.2891427760686914</v>
+        <v>0.07793127200052322</v>
       </c>
       <c r="S52" t="n">
-        <v>0.9195512556040788</v>
+        <v>0.8633839262393035</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U52" t="n">
-        <v>1318</v>
+        <v>1379</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>957</v>
+        <v>1161</v>
       </c>
       <c r="B53" t="n">
-        <v>991</v>
+        <v>1176</v>
       </c>
       <c r="C53" t="n">
-        <v>1131</v>
+        <v>1220</v>
       </c>
       <c r="D53" t="n">
-        <v>2.49194882729786</v>
+        <v>2.357814884205413</v>
       </c>
       <c r="E53" t="n">
-        <v>2.056761066751885</v>
+        <v>1.671972461024961</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.4351877605459754</v>
+        <v>-0.685842423180452</v>
       </c>
       <c r="G53" t="n">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="H53" t="n">
-        <v>47.65301848644265</v>
+        <v>30.79266156930066</v>
       </c>
       <c r="I53" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J53" t="n">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="K53" t="n">
-        <v>154.8884814855595</v>
+        <v>125.2614461808464</v>
       </c>
       <c r="L53" t="n">
-        <v>14.83509672967285</v>
+        <v>9.661891218073444</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,24 +4992,24 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.8758987183353257</v>
+        <v>0.7469947273639763</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.2428571428571429</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="R53" t="n">
-        <v>0.43592831353844</v>
+        <v>0.05050923233904672</v>
       </c>
       <c r="S53" t="n">
-        <v>0.7686197985820701</v>
+        <v>0.8674703519606801</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U53" t="n">
-        <v>1319</v>
+        <v>1380</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5029,40 +5029,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>209</v>
+        <v>852</v>
       </c>
       <c r="B54" t="n">
-        <v>245</v>
+        <v>879</v>
       </c>
       <c r="C54" t="n">
-        <v>307</v>
+        <v>957</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9212710660333392</v>
+        <v>2.714826307427343</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2440798893412146</v>
+        <v>2.279638546881367</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.6771911766921246</v>
+        <v>-0.4351877605459754</v>
       </c>
       <c r="G54" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H54" t="n">
-        <v>29.50837947065941</v>
+        <v>34.72502754187553</v>
       </c>
       <c r="I54" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J54" t="n">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="K54" t="n">
-        <v>48.72190853324494</v>
+        <v>142.7890037452516</v>
       </c>
       <c r="L54" t="n">
-        <v>4.170218813477375</v>
+        <v>16.16193335663998</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5078,24 +5078,24 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.7463034178742551</v>
+        <v>0.9227795236882899</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="R54" t="n">
-        <v>0.3415765282486572</v>
+        <v>0.2891427760686914</v>
       </c>
       <c r="S54" t="n">
-        <v>0.6008446879841544</v>
+        <v>0.9195512556040788</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U54" t="n">
-        <v>1320</v>
+        <v>1381</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5115,40 +5115,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>307</v>
+        <v>957</v>
       </c>
       <c r="B55" t="n">
-        <v>356</v>
+        <v>991</v>
       </c>
       <c r="C55" t="n">
-        <v>624</v>
+        <v>1131</v>
       </c>
       <c r="D55" t="n">
-        <v>1.62314028912711</v>
+        <v>2.49194882729786</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9459491124349851</v>
+        <v>2.056761066751885</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.6771911766921246</v>
+        <v>-0.4351877605459754</v>
       </c>
       <c r="G55" t="n">
-        <v>317</v>
+        <v>174</v>
       </c>
       <c r="H55" t="n">
-        <v>126.1886436818035</v>
+        <v>47.65301848644265</v>
       </c>
       <c r="I55" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="J55" t="n">
-        <v>268</v>
+        <v>140</v>
       </c>
       <c r="K55" t="n">
-        <v>211.6055999936312</v>
+        <v>154.8884814855595</v>
       </c>
       <c r="L55" t="n">
-        <v>7.347294862710933</v>
+        <v>14.83509672967285</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5164,24 +5164,24 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.8712853469239453</v>
+        <v>0.8758987183353257</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.1828358208955224</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="R55" t="n">
-        <v>0.4800087981659384</v>
+        <v>0.43592831353844</v>
       </c>
       <c r="S55" t="n">
-        <v>0.6651175924781614</v>
+        <v>0.7686197985820701</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>1321</v>
+        <v>1382</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5201,40 +5201,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>806</v>
+        <v>209</v>
       </c>
       <c r="B56" t="n">
-        <v>819</v>
+        <v>245</v>
       </c>
       <c r="C56" t="n">
-        <v>848</v>
+        <v>307</v>
       </c>
       <c r="D56" t="n">
-        <v>3.679560693900869</v>
+        <v>0.9212710660333392</v>
       </c>
       <c r="E56" t="n">
-        <v>3.002369517208745</v>
+        <v>0.2440798893412146</v>
       </c>
       <c r="F56" t="n">
         <v>-0.6771911766921246</v>
       </c>
       <c r="G56" t="n">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="H56" t="n">
-        <v>13.39989239903309</v>
+        <v>29.50837947065941</v>
       </c>
       <c r="I56" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="J56" t="n">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="K56" t="n">
-        <v>136.1436301424048</v>
+        <v>48.72190853324494</v>
       </c>
       <c r="L56" t="n">
-        <v>16.65587230162938</v>
+        <v>4.170218813477375</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5250,16 +5250,16 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.7777863858397653</v>
+        <v>0.7463034178742551</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="R56" t="n">
-        <v>0.09977424879721759</v>
+        <v>0.3415765282486572</v>
       </c>
       <c r="S56" t="n">
-        <v>0.9889932450501349</v>
+        <v>0.6008446879841544</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="U56" t="n">
-        <v>1322</v>
+        <v>1383</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5287,40 +5287,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1006</v>
+        <v>307</v>
       </c>
       <c r="B57" t="n">
-        <v>1028</v>
+        <v>356</v>
       </c>
       <c r="C57" t="n">
-        <v>1065</v>
+        <v>624</v>
       </c>
       <c r="D57" t="n">
-        <v>2.242557738356456</v>
+        <v>1.62314028912711</v>
       </c>
       <c r="E57" t="n">
-        <v>1.565366561664332</v>
+        <v>0.9459491124349851</v>
       </c>
       <c r="F57" t="n">
         <v>-0.6771911766921246</v>
       </c>
       <c r="G57" t="n">
-        <v>59</v>
+        <v>317</v>
       </c>
       <c r="H57" t="n">
-        <v>22.46776199000499</v>
+        <v>126.1886436818035</v>
       </c>
       <c r="I57" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="J57" t="n">
-        <v>37</v>
+        <v>268</v>
       </c>
       <c r="K57" t="n">
-        <v>116.1880803998926</v>
+        <v>211.6055999936312</v>
       </c>
       <c r="L57" t="n">
-        <v>10.15114532042075</v>
+        <v>7.347294862710933</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5336,16 +5336,16 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.7031678830735308</v>
+        <v>0.8712853469239453</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.1828358208955224</v>
       </c>
       <c r="R57" t="n">
-        <v>0.044284212992255</v>
+        <v>0.4800087981659384</v>
       </c>
       <c r="S57" t="n">
-        <v>0.9788223844052472</v>
+        <v>0.6651175924781614</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         </is>
       </c>
       <c r="U57" t="n">
-        <v>1323</v>
+        <v>1384</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5373,40 +5373,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1065</v>
+        <v>806</v>
       </c>
       <c r="B58" t="n">
-        <v>1089</v>
+        <v>819</v>
       </c>
       <c r="C58" t="n">
-        <v>1249</v>
+        <v>848</v>
       </c>
       <c r="D58" t="n">
-        <v>2.030151593389078</v>
+        <v>3.679560693900869</v>
       </c>
       <c r="E58" t="n">
-        <v>1.352960416696954</v>
+        <v>3.002369517208745</v>
       </c>
       <c r="F58" t="n">
         <v>-0.6771911766921246</v>
       </c>
       <c r="G58" t="n">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="H58" t="n">
-        <v>31.49799771835001</v>
+        <v>13.39989239903309</v>
       </c>
       <c r="I58" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J58" t="n">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="K58" t="n">
-        <v>261.8106071297566</v>
+        <v>136.1436301424048</v>
       </c>
       <c r="L58" t="n">
-        <v>9.189669231027199</v>
+        <v>16.65587230162938</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5422,16 +5422,16 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.8166863283012965</v>
+        <v>0.7777863858397653</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.15</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="R58" t="n">
-        <v>0.2768679365398931</v>
+        <v>0.09977424879721759</v>
       </c>
       <c r="S58" t="n">
-        <v>0.932209798581871</v>
+        <v>0.9889932450501349</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         </is>
       </c>
       <c r="U58" t="n">
-        <v>1324</v>
+        <v>1385</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1427</v>
+        <v>1006</v>
       </c>
       <c r="B59" t="n">
-        <v>1456</v>
+        <v>1028</v>
       </c>
       <c r="C59" t="n">
-        <v>1598</v>
+        <v>1065</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8596257490228809</v>
+        <v>2.242557738356456</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1824345723307563</v>
+        <v>1.565366561664332</v>
       </c>
       <c r="F59" t="n">
         <v>-0.6771911766921246</v>
       </c>
       <c r="G59" t="n">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="H59" t="n">
-        <v>31.5074523477158</v>
+        <v>22.46776199000499</v>
       </c>
       <c r="I59" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J59" t="n">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="K59" t="n">
-        <v>84.34104327182044</v>
+        <v>116.1880803998926</v>
       </c>
       <c r="L59" t="n">
-        <v>3.891175576108964</v>
+        <v>10.15114532042075</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,16 +5508,16 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.8256833877849483</v>
+        <v>0.7031678830735308</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.2042253521126761</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="R59" t="n">
-        <v>0.261053615870713</v>
+        <v>0.044284212992255</v>
       </c>
       <c r="S59" t="n">
-        <v>0.833795691224916</v>
+        <v>0.9788223844052472</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="U59" t="n">
-        <v>1325</v>
+        <v>1386</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>731</v>
+        <v>1065</v>
       </c>
       <c r="B60" t="n">
-        <v>780</v>
+        <v>1089</v>
       </c>
       <c r="C60" t="n">
-        <v>856</v>
+        <v>1249</v>
       </c>
       <c r="D60" t="n">
-        <v>5.652824292641261</v>
+        <v>2.030151593389078</v>
       </c>
       <c r="E60" t="n">
-        <v>5.258788976385748</v>
+        <v>1.352960416696954</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.3940353162555133</v>
+        <v>-0.6771911766921246</v>
       </c>
       <c r="G60" t="n">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="H60" t="n">
-        <v>92.20504051155251</v>
+        <v>31.49799771835001</v>
       </c>
       <c r="I60" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="J60" t="n">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="K60" t="n">
-        <v>462.6380644718589</v>
+        <v>261.8106071297566</v>
       </c>
       <c r="L60" t="n">
-        <v>23.9049847434008</v>
+        <v>9.189669231027199</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,24 +5594,24 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.7638786931549796</v>
+        <v>0.8166863283012965</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.6447368421052632</v>
+        <v>0.15</v>
       </c>
       <c r="R60" t="n">
-        <v>0.2613685498434837</v>
+        <v>0.2768679365398931</v>
       </c>
       <c r="S60" t="n">
-        <v>0.8595066102605859</v>
+        <v>0.932209798581871</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U60" t="n">
-        <v>1326</v>
+        <v>1387</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5631,73 +5631,73 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1717</v>
+        <v>1427</v>
       </c>
       <c r="B61" t="n">
-        <v>1744</v>
+        <v>1456</v>
       </c>
       <c r="C61" t="n">
-        <v>2078</v>
+        <v>1598</v>
       </c>
       <c r="D61" t="n">
-        <v>2.244007046071144</v>
+        <v>0.8596257490228809</v>
       </c>
       <c r="E61" t="n">
-        <v>1.654600862500501</v>
+        <v>0.1824345723307563</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.5894061835706437</v>
+        <v>-0.6771911766921246</v>
       </c>
       <c r="G61" t="n">
-        <v>361</v>
+        <v>171</v>
       </c>
       <c r="H61" t="n">
-        <v>170.104062027284</v>
+        <v>31.5074523477158</v>
       </c>
       <c r="I61" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J61" t="n">
-        <v>334</v>
+        <v>142</v>
       </c>
       <c r="K61" t="n">
-        <v>434.7634120532036</v>
+        <v>84.34104327182044</v>
       </c>
       <c r="L61" t="n">
-        <v>5.443815607380789</v>
+        <v>3.891175576108964</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(2040), 'value': np.float64(0.29634797220171655), 'amplitude': np.float64(0.8857541557723603), 'start_idx': np.int64(2010), 'end_idx': np.int64(2077), 'duration': np.float64(67.0), 'fwhm': np.float64(38.97395912388993), 'rise_time': np.float64(30.0), 'decay_time': np.float64(37.0), 'auc': np.float64(35.79000963770317)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.7912489867652672</v>
+        <v>0.8256833877849483</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.08083832335329341</v>
+        <v>0.2042253521126761</v>
       </c>
       <c r="R61" t="n">
-        <v>0.1965201635992063</v>
+        <v>0.261053615870713</v>
       </c>
       <c r="S61" t="n">
-        <v>0.6918818288232769</v>
+        <v>0.833795691224916</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U61" t="n">
-        <v>1327</v>
+        <v>1388</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>153</v>
+        <v>731</v>
       </c>
       <c r="B62" t="n">
-        <v>178</v>
+        <v>780</v>
       </c>
       <c r="C62" t="n">
-        <v>214</v>
+        <v>856</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5491203419828581</v>
+        <v>5.652824292641261</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1482748403425219</v>
+        <v>5.258788976385748</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.4008455016403362</v>
+        <v>-0.3940353162555133</v>
       </c>
       <c r="G62" t="n">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="H62" t="n">
-        <v>31.52929343362555</v>
+        <v>92.20504051155251</v>
       </c>
       <c r="I62" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="J62" t="n">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K62" t="n">
-        <v>19.23077056132988</v>
+        <v>462.6380644718589</v>
       </c>
       <c r="L62" t="n">
-        <v>3.454404965872837</v>
+        <v>23.9049847434008</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,24 +5766,24 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.7234540392360429</v>
+        <v>0.7638786931549796</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.6447368421052632</v>
       </c>
       <c r="R62" t="n">
-        <v>0.14287618934228</v>
+        <v>0.2613685498434837</v>
       </c>
       <c r="S62" t="n">
-        <v>0.9460177594171727</v>
+        <v>0.8595066102605859</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U62" t="n">
-        <v>1328</v>
+        <v>1389</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5803,73 +5803,73 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2123</v>
+        <v>1717</v>
       </c>
       <c r="B63" t="n">
-        <v>2165</v>
+        <v>1744</v>
       </c>
       <c r="C63" t="n">
-        <v>2393</v>
+        <v>2078</v>
       </c>
       <c r="D63" t="n">
-        <v>1.485502904942904</v>
+        <v>2.244007046071144</v>
       </c>
       <c r="E63" t="n">
-        <v>1.084657403302568</v>
+        <v>1.654600862500501</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.4008455016403362</v>
+        <v>-0.5894061835706437</v>
       </c>
       <c r="G63" t="n">
-        <v>270</v>
+        <v>361</v>
       </c>
       <c r="H63" t="n">
-        <v>57.29229552732204</v>
+        <v>170.104062027284</v>
       </c>
       <c r="I63" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J63" t="n">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="K63" t="n">
-        <v>134.695893659969</v>
+        <v>434.7634120532036</v>
       </c>
       <c r="L63" t="n">
-        <v>9.344998207721623</v>
+        <v>5.443815607380789</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(2040), 'value': np.float64(0.29634797220171655), 'amplitude': np.float64(0.8857541557723603), 'start_idx': np.int64(2010), 'end_idx': np.int64(2077), 'duration': np.float64(67.0), 'fwhm': np.float64(38.97395912388993), 'rise_time': np.float64(30.0), 'decay_time': np.float64(37.0), 'auc': np.float64(35.79000963770317)}]</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.8091850216972298</v>
+        <v>0.7912489867652672</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.08083832335329341</v>
       </c>
       <c r="R63" t="n">
-        <v>0.5020106705024231</v>
+        <v>0.1965201635992063</v>
       </c>
       <c r="S63" t="n">
-        <v>0.7399876224305706</v>
+        <v>0.6918818288232769</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U63" t="n">
-        <v>1329</v>
+        <v>1390</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5889,65 +5889,65 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2393</v>
+        <v>153</v>
       </c>
       <c r="B64" t="n">
-        <v>2448</v>
+        <v>178</v>
       </c>
       <c r="C64" t="n">
-        <v>2649</v>
+        <v>214</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8871779863039748</v>
+        <v>0.5491203419828581</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4863324846636386</v>
+        <v>0.1482748403425219</v>
       </c>
       <c r="F64" t="n">
         <v>-0.4008455016403362</v>
       </c>
       <c r="G64" t="n">
-        <v>256</v>
+        <v>61</v>
       </c>
       <c r="H64" t="n">
-        <v>49.93626044004668</v>
+        <v>31.52929343362555</v>
       </c>
       <c r="I64" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="J64" t="n">
-        <v>201</v>
+        <v>36</v>
       </c>
       <c r="K64" t="n">
-        <v>288.6120623533684</v>
+        <v>19.23077056132988</v>
       </c>
       <c r="L64" t="n">
-        <v>5.581057205848667</v>
+        <v>3.454404965872837</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(2548), 'value': np.float64(0.08082999298271465), 'amplitude': np.float64(0.48167549462305087), 'start_idx': np.int64(2531), 'end_idx': np.int64(2575), 'duration': np.float64(44.0), 'fwhm': np.float64(20.101806844672865), 'rise_time': np.float64(17.0), 'decay_time': np.float64(27.0), 'auc': np.float64(13.646689486215394)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.6765046167072596</v>
+        <v>0.7234540392360429</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.2736318407960199</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="R64" t="n">
-        <v>2.3731611717127</v>
+        <v>0.14287618934228</v>
       </c>
       <c r="S64" t="n">
-        <v>0.3067057458751942</v>
+        <v>0.9460177594171727</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         </is>
       </c>
       <c r="U64" t="n">
-        <v>1330</v>
+        <v>1391</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5975,73 +5975,73 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1306</v>
+        <v>2123</v>
       </c>
       <c r="B65" t="n">
-        <v>1331</v>
+        <v>2165</v>
       </c>
       <c r="C65" t="n">
-        <v>1455</v>
+        <v>2393</v>
       </c>
       <c r="D65" t="n">
-        <v>2.225645999325541</v>
+        <v>1.485502904942904</v>
       </c>
       <c r="E65" t="n">
-        <v>1.737318289090291</v>
+        <v>1.084657403302568</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.4883277102352502</v>
+        <v>-0.4008455016403362</v>
       </c>
       <c r="G65" t="n">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="H65" t="n">
-        <v>41.07232990363559</v>
+        <v>57.29229552732204</v>
       </c>
       <c r="I65" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J65" t="n">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="K65" t="n">
-        <v>192.3557840929545</v>
+        <v>134.695893659969</v>
       </c>
       <c r="L65" t="n">
-        <v>4.163481701410483</v>
+        <v>9.344998207721623</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1409), 'value': np.float64(1.3134818509498398), 'amplitude': np.float64(1.80180956118509), 'start_idx': np.int64(1405), 'end_idx': np.int64(1454), 'duration': np.float64(49.0), 'fwhm': np.float64(31.71781873542568), 'rise_time': np.float64(4.0), 'decay_time': np.float64(45.0), 'auc': np.float64(51.652003447321775)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.7809924936011561</v>
+        <v>0.8091850216972298</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.2016129032258064</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="R65" t="n">
-        <v>0.4188528752797053</v>
+        <v>0.5020106705024231</v>
       </c>
       <c r="S65" t="n">
-        <v>0.4266302893617893</v>
+        <v>0.7399876224305706</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U65" t="n">
-        <v>1331</v>
+        <v>1392</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6061,73 +6061,73 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1455</v>
+        <v>2393</v>
       </c>
       <c r="B66" t="n">
-        <v>1519</v>
+        <v>2448</v>
       </c>
       <c r="C66" t="n">
-        <v>1853</v>
+        <v>2649</v>
       </c>
       <c r="D66" t="n">
-        <v>4.446396090263435</v>
+        <v>0.8871779863039748</v>
       </c>
       <c r="E66" t="n">
-        <v>3.958068380028185</v>
+        <v>0.4863324846636386</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4883277102352502</v>
+        <v>-0.4008455016403362</v>
       </c>
       <c r="G66" t="n">
-        <v>398</v>
+        <v>256</v>
       </c>
       <c r="H66" t="n">
-        <v>88.69546333207222</v>
+        <v>49.93626044004668</v>
       </c>
       <c r="I66" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J66" t="n">
-        <v>334</v>
+        <v>201</v>
       </c>
       <c r="K66" t="n">
-        <v>557.2921930856795</v>
+        <v>288.6120623533684</v>
       </c>
       <c r="L66" t="n">
-        <v>8.31780470238526</v>
+        <v>5.581057205848667</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(2548), 'value': np.float64(0.08082999298271465), 'amplitude': np.float64(0.48167549462305087), 'start_idx': np.int64(2531), 'end_idx': np.int64(2575), 'duration': np.float64(44.0), 'fwhm': np.float64(20.101806844672865), 'rise_time': np.float64(17.0), 'decay_time': np.float64(27.0), 'auc': np.float64(13.646689486215394)}]</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.7893175103398802</v>
+        <v>0.6765046167072596</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.1916167664670659</v>
+        <v>0.2736318407960199</v>
       </c>
       <c r="R66" t="n">
-        <v>0.5554821369922455</v>
+        <v>2.3731611717127</v>
       </c>
       <c r="S66" t="n">
-        <v>0.6094858170255868</v>
+        <v>0.3067057458751942</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U66" t="n">
-        <v>1332</v>
+        <v>1393</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6147,73 +6147,73 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1597</v>
+        <v>1306</v>
       </c>
       <c r="B67" t="n">
-        <v>1627</v>
+        <v>1331</v>
       </c>
       <c r="C67" t="n">
-        <v>1769</v>
+        <v>1455</v>
       </c>
       <c r="D67" t="n">
-        <v>3.452038020195046</v>
+        <v>2.225645999325541</v>
       </c>
       <c r="E67" t="n">
-        <v>2.888610716605271</v>
+        <v>1.737318289090291</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.5634273035897749</v>
+        <v>-0.4883277102352502</v>
       </c>
       <c r="G67" t="n">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="H67" t="n">
-        <v>71.509343908044</v>
+        <v>41.07232990363559</v>
       </c>
       <c r="I67" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J67" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="K67" t="n">
-        <v>269.2429540219912</v>
+        <v>192.3557840929545</v>
       </c>
       <c r="L67" t="n">
-        <v>13.76742265687881</v>
+        <v>4.163481701410483</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1409), 'value': np.float64(1.3134818509498398), 'amplitude': np.float64(1.80180956118509), 'start_idx': np.int64(1405), 'end_idx': np.int64(1454), 'duration': np.float64(49.0), 'fwhm': np.float64(31.71781873542568), 'rise_time': np.float64(4.0), 'decay_time': np.float64(45.0), 'auc': np.float64(51.652003447321775)}]</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.9258847293589393</v>
+        <v>0.7809924936011561</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.2112676056338028</v>
+        <v>0.2016129032258064</v>
       </c>
       <c r="R67" t="n">
-        <v>0.207698744991161</v>
+        <v>0.4188528752797053</v>
       </c>
       <c r="S67" t="n">
-        <v>0.9322257206204736</v>
+        <v>0.4266302893617893</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>1333</v>
+        <v>1394</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6233,40 +6233,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1945</v>
+        <v>1455</v>
       </c>
       <c r="B68" t="n">
-        <v>2026</v>
+        <v>1519</v>
       </c>
       <c r="C68" t="n">
-        <v>2164</v>
+        <v>1853</v>
       </c>
       <c r="D68" t="n">
-        <v>3.906988299808873</v>
+        <v>4.446396090263435</v>
       </c>
       <c r="E68" t="n">
-        <v>3.386536237169617</v>
+        <v>3.958068380028185</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.5204520626392563</v>
+        <v>-0.4883277102352502</v>
       </c>
       <c r="G68" t="n">
-        <v>219</v>
+        <v>398</v>
       </c>
       <c r="H68" t="n">
-        <v>194.3034627251684</v>
+        <v>88.69546333207222</v>
       </c>
       <c r="I68" t="n">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="J68" t="n">
-        <v>138</v>
+        <v>334</v>
       </c>
       <c r="K68" t="n">
-        <v>534.9963393235914</v>
+        <v>557.2921930856795</v>
       </c>
       <c r="L68" t="n">
-        <v>13.38978582871865</v>
+        <v>8.31780470238526</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6282,24 +6282,24 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.700119073429228</v>
+        <v>0.7893175103398802</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.5869565217391305</v>
+        <v>0.1916167664670659</v>
       </c>
       <c r="R68" t="n">
-        <v>0.4316119829072784</v>
+        <v>0.5554821369922455</v>
       </c>
       <c r="S68" t="n">
-        <v>0.986682963236837</v>
+        <v>0.6094858170255868</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U68" t="n">
-        <v>1334</v>
+        <v>1395</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6319,40 +6319,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2164</v>
+        <v>1597</v>
       </c>
       <c r="B69" t="n">
-        <v>2286</v>
+        <v>1627</v>
       </c>
       <c r="C69" t="n">
-        <v>2602</v>
+        <v>1769</v>
       </c>
       <c r="D69" t="n">
-        <v>2.58185156358335</v>
+        <v>3.452038020195046</v>
       </c>
       <c r="E69" t="n">
-        <v>2.061399500944094</v>
+        <v>2.888610716605271</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5204520626392563</v>
+        <v>-0.5634273035897749</v>
       </c>
       <c r="G69" t="n">
-        <v>438</v>
+        <v>172</v>
       </c>
       <c r="H69" t="n">
-        <v>72.58229351444561</v>
+        <v>71.509343908044</v>
       </c>
       <c r="I69" t="n">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="J69" t="n">
-        <v>316</v>
+        <v>142</v>
       </c>
       <c r="K69" t="n">
-        <v>422.7847946462722</v>
+        <v>269.2429540219912</v>
       </c>
       <c r="L69" t="n">
-        <v>8.848360124245726</v>
+        <v>13.76742265687881</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6368,24 +6368,24 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.6901132885697293</v>
+        <v>0.9258847293589393</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.3860759493670886</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="R69" t="n">
-        <v>0.4542350864526366</v>
+        <v>0.207698744991161</v>
       </c>
       <c r="S69" t="n">
-        <v>0.9022360943489081</v>
+        <v>0.9322257206204736</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n36</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>1335</v>
+        <v>1396</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2219</v>
+        <v>1945</v>
       </c>
       <c r="B70" t="n">
-        <v>2251</v>
+        <v>2026</v>
       </c>
       <c r="C70" t="n">
-        <v>2456</v>
+        <v>2164</v>
       </c>
       <c r="D70" t="n">
-        <v>7.159338822842831</v>
+        <v>3.906988299808873</v>
       </c>
       <c r="E70" t="n">
-        <v>6.748174117801454</v>
+        <v>3.386536237169617</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.4111647050413774</v>
+        <v>-0.5204520626392563</v>
       </c>
       <c r="G70" t="n">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="H70" t="n">
-        <v>49.66427780064078</v>
+        <v>194.3034627251684</v>
       </c>
       <c r="I70" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="J70" t="n">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="K70" t="n">
-        <v>595.0145775251142</v>
+        <v>534.9963393235914</v>
       </c>
       <c r="L70" t="n">
-        <v>41.31651690642048</v>
+        <v>13.38978582871865</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,24 +6454,24 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.8389098875014782</v>
+        <v>0.700119073429228</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.1560975609756098</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="R70" t="n">
-        <v>0.4113579519502749</v>
+        <v>0.4316119829072784</v>
       </c>
       <c r="S70" t="n">
-        <v>0.9385638678681228</v>
+        <v>0.986682963236837</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>1336</v>
+        <v>1397</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>266</v>
+        <v>2164</v>
       </c>
       <c r="B71" t="n">
-        <v>288</v>
+        <v>2286</v>
       </c>
       <c r="C71" t="n">
-        <v>348</v>
+        <v>2602</v>
       </c>
       <c r="D71" t="n">
-        <v>4.285707701751952</v>
+        <v>2.58185156358335</v>
       </c>
       <c r="E71" t="n">
-        <v>3.697716577267818</v>
+        <v>2.061399500944094</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.587991124484134</v>
+        <v>-0.5204520626392563</v>
       </c>
       <c r="G71" t="n">
-        <v>82</v>
+        <v>438</v>
       </c>
       <c r="H71" t="n">
-        <v>76.35867415765856</v>
+        <v>72.58229351444561</v>
       </c>
       <c r="I71" t="n">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="J71" t="n">
-        <v>60</v>
+        <v>316</v>
       </c>
       <c r="K71" t="n">
-        <v>198.5512700270093</v>
+        <v>422.7847946462722</v>
       </c>
       <c r="L71" t="n">
-        <v>19.11033191943918</v>
+        <v>8.848360124245726</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,24 +6540,24 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.8842479742201331</v>
+        <v>0.6901132885697293</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.3860759493670886</v>
       </c>
       <c r="R71" t="n">
-        <v>0.4074936649316497</v>
+        <v>0.4542350864526366</v>
       </c>
       <c r="S71" t="n">
-        <v>0.9918048820020489</v>
+        <v>0.9022360943489081</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U71" t="n">
-        <v>1337</v>
+        <v>1398</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2319</v>
+        <v>2219</v>
       </c>
       <c r="B72" t="n">
-        <v>2351</v>
+        <v>2251</v>
       </c>
       <c r="C72" t="n">
-        <v>2412</v>
+        <v>2456</v>
       </c>
       <c r="D72" t="n">
-        <v>3.655353278697727</v>
+        <v>7.159338822842831</v>
       </c>
       <c r="E72" t="n">
-        <v>3.067362154213593</v>
+        <v>6.748174117801454</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.587991124484134</v>
+        <v>-0.4111647050413774</v>
       </c>
       <c r="G72" t="n">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="H72" t="n">
-        <v>41.14753564000966</v>
+        <v>49.66427780064078</v>
       </c>
       <c r="I72" t="n">
         <v>32</v>
       </c>
       <c r="J72" t="n">
-        <v>61</v>
+        <v>205</v>
       </c>
       <c r="K72" t="n">
-        <v>144.3981323217604</v>
+        <v>595.0145775251142</v>
       </c>
       <c r="L72" t="n">
-        <v>16.29952840931449</v>
+        <v>41.31651690642048</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,24 +6626,24 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.8700436113223203</v>
+        <v>0.8389098875014782</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.5245901639344263</v>
+        <v>0.1560975609756098</v>
       </c>
       <c r="R72" t="n">
-        <v>0.2523058321785385</v>
+        <v>0.4113579519502749</v>
       </c>
       <c r="S72" t="n">
-        <v>0.9940108125982142</v>
+        <v>0.9385638678681228</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n38</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>1338</v>
+        <v>1399</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6663,40 +6663,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>161</v>
+        <v>266</v>
       </c>
       <c r="B73" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="C73" t="n">
-        <v>290</v>
+        <v>348</v>
       </c>
       <c r="D73" t="n">
-        <v>2.685768536220714</v>
+        <v>4.285707701751952</v>
       </c>
       <c r="E73" t="n">
-        <v>2.052691841205263</v>
+        <v>3.697716577267818</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.6330766950154519</v>
+        <v>-0.587991124484134</v>
       </c>
       <c r="G73" t="n">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="H73" t="n">
-        <v>102.7830809020127</v>
+        <v>76.35867415765856</v>
       </c>
       <c r="I73" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J73" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K73" t="n">
-        <v>262.7247535327884</v>
+        <v>198.5512700270093</v>
       </c>
       <c r="L73" t="n">
-        <v>5.753517168075534</v>
+        <v>19.11033191943918</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6712,24 +6712,24 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.6878212878885984</v>
+        <v>0.8842479742201331</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="R73" t="n">
-        <v>0.1071535257924762</v>
+        <v>0.4074936649316497</v>
       </c>
       <c r="S73" t="n">
-        <v>0.6727263580938057</v>
+        <v>0.9918048820020489</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n39</t>
         </is>
       </c>
       <c r="U73" t="n">
-        <v>1339</v>
+        <v>1400</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6749,40 +6749,40 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>306</v>
+        <v>2319</v>
       </c>
       <c r="B74" t="n">
-        <v>334</v>
+        <v>2351</v>
       </c>
       <c r="C74" t="n">
-        <v>374</v>
+        <v>2412</v>
       </c>
       <c r="D74" t="n">
-        <v>3.338836167823775</v>
+        <v>3.655353278697727</v>
       </c>
       <c r="E74" t="n">
-        <v>2.855431739416859</v>
+        <v>3.067362154213593</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.4834044284069161</v>
+        <v>-0.587991124484134</v>
       </c>
       <c r="G74" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H74" t="n">
-        <v>26.49482152442056</v>
+        <v>41.14753564000966</v>
       </c>
       <c r="I74" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J74" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="K74" t="n">
-        <v>129.7082495520502</v>
+        <v>144.3981323217604</v>
       </c>
       <c r="L74" t="n">
-        <v>8.050987001468078</v>
+        <v>16.29952840931449</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -6798,24 +6798,24 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.8280256833282287</v>
+        <v>0.8700436113223203</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.7</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="R74" t="n">
-        <v>0.2664669227265021</v>
+        <v>0.2523058321785385</v>
       </c>
       <c r="S74" t="n">
-        <v>0.9513799598652397</v>
+        <v>0.9940108125982142</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n39</t>
         </is>
       </c>
       <c r="U74" t="n">
-        <v>1340</v>
+        <v>1401</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -6835,40 +6835,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1672</v>
+        <v>161</v>
       </c>
       <c r="B75" t="n">
-        <v>1703</v>
+        <v>200</v>
       </c>
       <c r="C75" t="n">
-        <v>1763</v>
+        <v>290</v>
       </c>
       <c r="D75" t="n">
-        <v>3.458733762647824</v>
+        <v>2.685768536220714</v>
       </c>
       <c r="E75" t="n">
-        <v>3.016192112587893</v>
+        <v>2.052691841205263</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.442541650059931</v>
+        <v>-0.6330766950154519</v>
       </c>
       <c r="G75" t="n">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="H75" t="n">
-        <v>51.38337039613816</v>
+        <v>102.7830809020127</v>
       </c>
       <c r="I75" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J75" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K75" t="n">
-        <v>166.4111178533257</v>
+        <v>262.7247535327884</v>
       </c>
       <c r="L75" t="n">
-        <v>17.10686199211815</v>
+        <v>5.753517168075534</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6884,24 +6884,24 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.8074012861099296</v>
+        <v>0.6878212878885984</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="R75" t="n">
-        <v>0.2357199901027993</v>
+        <v>0.1071535257924762</v>
       </c>
       <c r="S75" t="n">
-        <v>0.8049809241163506</v>
+        <v>0.6727263580938057</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>n42</t>
+          <t>n40</t>
         </is>
       </c>
       <c r="U75" t="n">
-        <v>1341</v>
+        <v>1402</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>410</v>
+        <v>306</v>
       </c>
       <c r="B76" t="n">
-        <v>432</v>
+        <v>334</v>
       </c>
       <c r="C76" t="n">
-        <v>491</v>
+        <v>374</v>
       </c>
       <c r="D76" t="n">
-        <v>1.654880882862172</v>
+        <v>3.338836167823775</v>
       </c>
       <c r="E76" t="n">
-        <v>1.040876200407663</v>
+        <v>2.855431739416859</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.6140046824545093</v>
+        <v>-0.4834044284069161</v>
       </c>
       <c r="G76" t="n">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="H76" t="n">
-        <v>73.13025238548499</v>
+        <v>26.49482152442056</v>
       </c>
       <c r="I76" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J76" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="K76" t="n">
-        <v>66.77071666183608</v>
+        <v>129.7082495520502</v>
       </c>
       <c r="L76" t="n">
-        <v>5.003035485306317</v>
+        <v>8.050987001468078</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -6970,24 +6970,24 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.814611528158355</v>
+        <v>0.8280256833282287</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.3728813559322034</v>
+        <v>0.7</v>
       </c>
       <c r="R76" t="n">
-        <v>0.3680981151151037</v>
+        <v>0.2664669227265021</v>
       </c>
       <c r="S76" t="n">
-        <v>0.6838086965154193</v>
+        <v>0.9513799598652397</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>n43</t>
+          <t>n41</t>
         </is>
       </c>
       <c r="U76" t="n">
-        <v>1342</v>
+        <v>1403</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -7007,40 +7007,40 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2012</v>
+        <v>1672</v>
       </c>
       <c r="B77" t="n">
-        <v>2058</v>
+        <v>1703</v>
       </c>
       <c r="C77" t="n">
-        <v>2207</v>
+        <v>1763</v>
       </c>
       <c r="D77" t="n">
-        <v>2.523170478156591</v>
+        <v>3.458733762647824</v>
       </c>
       <c r="E77" t="n">
-        <v>1.909165795702082</v>
+        <v>3.016192112587893</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.6140046824545093</v>
+        <v>-0.442541650059931</v>
       </c>
       <c r="G77" t="n">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="H77" t="n">
-        <v>113.9802463123522</v>
+        <v>51.38337039613816</v>
       </c>
       <c r="I77" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J77" t="n">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="K77" t="n">
-        <v>265.3129202270912</v>
+        <v>166.4111178533257</v>
       </c>
       <c r="L77" t="n">
-        <v>7.628048380051347</v>
+        <v>17.10686199211815</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7056,24 +7056,24 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.8694018080842419</v>
+        <v>0.8074012861099296</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.3087248322147651</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="R77" t="n">
-        <v>0.3948671640288014</v>
+        <v>0.2357199901027993</v>
       </c>
       <c r="S77" t="n">
-        <v>0.6895133547278642</v>
+        <v>0.8049809241163506</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>n43</t>
+          <t>n42</t>
         </is>
       </c>
       <c r="U77" t="n">
-        <v>1343</v>
+        <v>1404</v>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -7093,40 +7093,40 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1151</v>
+        <v>410</v>
       </c>
       <c r="B78" t="n">
-        <v>1182</v>
+        <v>432</v>
       </c>
       <c r="C78" t="n">
-        <v>1506</v>
+        <v>491</v>
       </c>
       <c r="D78" t="n">
-        <v>3.840613832232217</v>
+        <v>1.654880882862172</v>
       </c>
       <c r="E78" t="n">
-        <v>3.199914490301905</v>
+        <v>1.040876200407663</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.6406993419303122</v>
+        <v>-0.6140046824545093</v>
       </c>
       <c r="G78" t="n">
-        <v>355</v>
+        <v>81</v>
       </c>
       <c r="H78" t="n">
-        <v>223.3708459142208</v>
+        <v>73.13025238548499</v>
       </c>
       <c r="I78" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J78" t="n">
-        <v>324</v>
+        <v>59</v>
       </c>
       <c r="K78" t="n">
-        <v>615.4936029239433</v>
+        <v>66.77071666183608</v>
       </c>
       <c r="L78" t="n">
-        <v>21.11462851417318</v>
+        <v>5.003035485306317</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7142,24 +7142,24 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.8317238785607248</v>
+        <v>0.814611528158355</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.09567901234567901</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="R78" t="n">
-        <v>0.5499944549604088</v>
+        <v>0.3680981151151037</v>
       </c>
       <c r="S78" t="n">
-        <v>0.8619442937608112</v>
+        <v>0.6838086965154193</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>n44</t>
+          <t>n43</t>
         </is>
       </c>
       <c r="U78" t="n">
-        <v>1344</v>
+        <v>1405</v>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -7179,40 +7179,40 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1806</v>
+        <v>2082</v>
       </c>
       <c r="B79" t="n">
-        <v>1834</v>
+        <v>2100</v>
       </c>
       <c r="C79" t="n">
-        <v>1894</v>
+        <v>2207</v>
       </c>
       <c r="D79" t="n">
-        <v>1.612786886529166</v>
+        <v>2.041209235714332</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9720875445988535</v>
+        <v>1.427204553259822</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.6406993419303122</v>
+        <v>-0.6140046824545093</v>
       </c>
       <c r="G79" t="n">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="H79" t="n">
-        <v>51.14710735827339</v>
+        <v>37.96551020764082</v>
       </c>
       <c r="I79" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J79" t="n">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="K79" t="n">
-        <v>92.57558204931416</v>
+        <v>163.8044057475981</v>
       </c>
       <c r="L79" t="n">
-        <v>8.866654516473739</v>
+        <v>6.170983268325255</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -7228,24 +7228,24 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.7402397791538866</v>
+        <v>0.8665419299995958</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="R79" t="n">
-        <v>0.1734306136565817</v>
+        <v>0.3226305045564773</v>
       </c>
       <c r="S79" t="n">
-        <v>0.6184853103447876</v>
+        <v>0.8212631414500049</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>n44</t>
+          <t>n43</t>
         </is>
       </c>
       <c r="U79" t="n">
-        <v>1345</v>
+        <v>1406</v>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -7265,73 +7265,73 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1095</v>
+        <v>1209</v>
       </c>
       <c r="B80" t="n">
-        <v>1131</v>
+        <v>1225</v>
       </c>
       <c r="C80" t="n">
-        <v>1242</v>
+        <v>1272</v>
       </c>
       <c r="D80" t="n">
-        <v>2.160180239504947</v>
+        <v>3.233642124629024</v>
       </c>
       <c r="E80" t="n">
-        <v>1.480829049927487</v>
+        <v>2.592942782698712</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.6793511895774599</v>
+        <v>-0.6406993419303122</v>
       </c>
       <c r="G80" t="n">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="H80" t="n">
-        <v>54.10183103203121</v>
+        <v>12.69902334526137</v>
       </c>
       <c r="I80" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="J80" t="n">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="K80" t="n">
-        <v>142.6366562927092</v>
+        <v>178.7362847245491</v>
       </c>
       <c r="L80" t="n">
-        <v>5.732704605525835</v>
+        <v>17.77766658972842</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1213), 'value': np.float64(0.47541396026183025), 'amplitude': np.float64(1.1547651498392901), 'start_idx': np.int64(1188), 'end_idx': np.int64(1241), 'duration': np.float64(53.0), 'fwhm': np.float64(23.250963731152297), 'rise_time': np.float64(25.0), 'decay_time': np.float64(28.0), 'auc': np.float64(33.00642873483544)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.825673274165155</v>
+        <v>0.7740543150771763</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.3243243243243243</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="R80" t="n">
-        <v>0.424324413079942</v>
+        <v>0.1078174121688213</v>
       </c>
       <c r="S80" t="n">
-        <v>0.3491789070729895</v>
+        <v>0.9908453874233482</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>n45</t>
+          <t>n44</t>
         </is>
       </c>
       <c r="U80" t="n">
-        <v>1346</v>
+        <v>1407</v>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -7351,40 +7351,40 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1686</v>
+        <v>1272</v>
       </c>
       <c r="B81" t="n">
-        <v>1738</v>
+        <v>1285</v>
       </c>
       <c r="C81" t="n">
-        <v>1810</v>
+        <v>1506</v>
       </c>
       <c r="D81" t="n">
-        <v>3.298794773631729</v>
+        <v>2.510027707751161</v>
       </c>
       <c r="E81" t="n">
-        <v>2.619443584054269</v>
+        <v>1.869328365820848</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.6793511895774599</v>
+        <v>-0.6406993419303122</v>
       </c>
       <c r="G81" t="n">
-        <v>124</v>
+        <v>234</v>
       </c>
       <c r="H81" t="n">
-        <v>21.93427367541653</v>
+        <v>16.77629687417425</v>
       </c>
       <c r="I81" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="J81" t="n">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="K81" t="n">
-        <v>282.1731673734939</v>
+        <v>237.9154556088214</v>
       </c>
       <c r="L81" t="n">
-        <v>8.754369494564509</v>
+        <v>13.79943543520596</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7400,24 +7400,24 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.5824338114263298</v>
+        <v>0.7122928165661923</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="R81" t="n">
-        <v>0.2657580847425474</v>
+        <v>0.6003392608117137</v>
       </c>
       <c r="S81" t="n">
-        <v>0.9655046364470505</v>
+        <v>0.7360911321354506</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>n45</t>
+          <t>n44</t>
         </is>
       </c>
       <c r="U81" t="n">
-        <v>1347</v>
+        <v>1408</v>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -7437,40 +7437,40 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1868</v>
+        <v>1806</v>
       </c>
       <c r="B82" t="n">
-        <v>1897</v>
+        <v>1834</v>
       </c>
       <c r="C82" t="n">
-        <v>1981</v>
+        <v>1894</v>
       </c>
       <c r="D82" t="n">
-        <v>2.43836600550703</v>
+        <v>1.612786886529166</v>
       </c>
       <c r="E82" t="n">
-        <v>1.75901481592957</v>
+        <v>0.9720875445988535</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.6793511895774599</v>
+        <v>-0.6406993419303122</v>
       </c>
       <c r="G82" t="n">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="H82" t="n">
-        <v>53.36435120581314</v>
+        <v>51.14710735827339</v>
       </c>
       <c r="I82" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J82" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="K82" t="n">
-        <v>186.5257259742378</v>
+        <v>92.57558204931416</v>
       </c>
       <c r="L82" t="n">
-        <v>6.470956346184912</v>
+        <v>8.866654516473739</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7486,24 +7486,24 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.9040517653782638</v>
+        <v>0.7402397791538866</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.3452380952380952</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R82" t="n">
-        <v>0.2029484552336546</v>
+        <v>0.1734306136565817</v>
       </c>
       <c r="S82" t="n">
-        <v>0.9166758269973676</v>
+        <v>0.6184853103447876</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>n45</t>
+          <t>n44</t>
         </is>
       </c>
       <c r="U82" t="n">
-        <v>1348</v>
+        <v>1409</v>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -7523,65 +7523,65 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1981</v>
+        <v>1095</v>
       </c>
       <c r="B83" t="n">
-        <v>2009</v>
+        <v>1131</v>
       </c>
       <c r="C83" t="n">
-        <v>2061</v>
+        <v>1242</v>
       </c>
       <c r="D83" t="n">
-        <v>1.423107706143375</v>
+        <v>2.160180239504947</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7437565165659155</v>
+        <v>1.480829049927487</v>
       </c>
       <c r="F83" t="n">
         <v>-0.6793511895774599</v>
       </c>
       <c r="G83" t="n">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="H83" t="n">
-        <v>43.22641761126283</v>
+        <v>54.10183103203121</v>
       </c>
       <c r="I83" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J83" t="n">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="K83" t="n">
-        <v>77.19574743246986</v>
+        <v>142.6366562927092</v>
       </c>
       <c r="L83" t="n">
-        <v>3.776655277171259</v>
+        <v>5.732704605525835</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1213), 'value': np.float64(0.47541396026183025), 'amplitude': np.float64(1.1547651498392901), 'start_idx': np.int64(1188), 'end_idx': np.int64(1241), 'duration': np.float64(53.0), 'fwhm': np.float64(23.250963731152297), 'rise_time': np.float64(25.0), 'decay_time': np.float64(28.0), 'auc': np.float64(33.00642873483544)}]</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.7004140005948362</v>
+        <v>0.825673274165155</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="R83" t="n">
-        <v>0.1035353312581404</v>
+        <v>0.424324413079942</v>
       </c>
       <c r="S83" t="n">
-        <v>0.8178747540779532</v>
+        <v>0.3491789070729895</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         </is>
       </c>
       <c r="U83" t="n">
-        <v>1349</v>
+        <v>1410</v>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -7609,40 +7609,40 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2458</v>
+        <v>1686</v>
       </c>
       <c r="B84" t="n">
-        <v>2501</v>
+        <v>1738</v>
       </c>
       <c r="C84" t="n">
-        <v>2649</v>
+        <v>1810</v>
       </c>
       <c r="D84" t="n">
-        <v>2.594962425525441</v>
+        <v>3.298794773631729</v>
       </c>
       <c r="E84" t="n">
-        <v>2.078417533371637</v>
+        <v>2.619443584054269</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5165448921538039</v>
+        <v>-0.6793511895774599</v>
       </c>
       <c r="G84" t="n">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="H84" t="n">
-        <v>38.14303050276339</v>
+        <v>21.93427367541653</v>
       </c>
       <c r="I84" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J84" t="n">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="K84" t="n">
-        <v>305.3737714124389</v>
+        <v>282.1731673734939</v>
       </c>
       <c r="L84" t="n">
-        <v>5.388228584354546</v>
+        <v>8.754369494564509</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -7658,24 +7658,24 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.8372549817238379</v>
+        <v>0.5824338114263298</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.2905405405405405</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="R84" t="n">
-        <v>0.2610174095644563</v>
+        <v>0.2657580847425474</v>
       </c>
       <c r="S84" t="n">
-        <v>0.7003935672435001</v>
+        <v>0.9655046364470505</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>n46</t>
+          <t>n45</t>
         </is>
       </c>
       <c r="U84" t="n">
-        <v>1350</v>
+        <v>1411</v>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -7695,40 +7695,40 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2023</v>
+        <v>1868</v>
       </c>
       <c r="B85" t="n">
-        <v>2124</v>
+        <v>1897</v>
       </c>
       <c r="C85" t="n">
-        <v>2264</v>
+        <v>1981</v>
       </c>
       <c r="D85" t="n">
-        <v>3.228937716462808</v>
+        <v>2.43836600550703</v>
       </c>
       <c r="E85" t="n">
-        <v>2.81890117824452</v>
+        <v>1.75901481592957</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4100365382182886</v>
+        <v>-0.6793511895774599</v>
       </c>
       <c r="G85" t="n">
-        <v>241</v>
+        <v>113</v>
       </c>
       <c r="H85" t="n">
-        <v>58.29116788782903</v>
+        <v>53.36435120581314</v>
       </c>
       <c r="I85" t="n">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="J85" t="n">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="K85" t="n">
-        <v>234.4007886801792</v>
+        <v>186.5257259742378</v>
       </c>
       <c r="L85" t="n">
-        <v>9.589319316554715</v>
+        <v>6.470956346184912</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -7744,24 +7744,24 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.5697175411084073</v>
+        <v>0.9040517653782638</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.7214285714285714</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="R85" t="n">
-        <v>0.7933117557000271</v>
+        <v>0.2029484552336546</v>
       </c>
       <c r="S85" t="n">
-        <v>0.8797714644587761</v>
+        <v>0.9166758269973676</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>n47</t>
+          <t>n45</t>
         </is>
       </c>
       <c r="U85" t="n">
-        <v>1351</v>
+        <v>1412</v>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -7781,40 +7781,40 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2398</v>
+        <v>1981</v>
       </c>
       <c r="B86" t="n">
-        <v>2429</v>
+        <v>2009</v>
       </c>
       <c r="C86" t="n">
-        <v>2649</v>
+        <v>2061</v>
       </c>
       <c r="D86" t="n">
-        <v>5.41417625580461</v>
+        <v>1.423107706143375</v>
       </c>
       <c r="E86" t="n">
-        <v>5.004139717586321</v>
+        <v>0.7437565165659155</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.4100365382182886</v>
+        <v>-0.6793511895774599</v>
       </c>
       <c r="G86" t="n">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="H86" t="n">
-        <v>58.93361913251374</v>
+        <v>43.22641761126283</v>
       </c>
       <c r="I86" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J86" t="n">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="K86" t="n">
-        <v>433.8862009673267</v>
+        <v>77.19574743246986</v>
       </c>
       <c r="L86" t="n">
-        <v>16.07905432437196</v>
+        <v>3.776655277171259</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -7830,24 +7830,24 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.7748126179489729</v>
+        <v>0.7004140005948362</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.1409090909090909</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="R86" t="n">
-        <v>0.5424534499797329</v>
+        <v>0.1035353312581404</v>
       </c>
       <c r="S86" t="n">
-        <v>0.6186096633906836</v>
+        <v>0.8178747540779532</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>n47</t>
+          <t>n45</t>
         </is>
       </c>
       <c r="U86" t="n">
-        <v>1352</v>
+        <v>1413</v>
       </c>
       <c r="V86" t="inlineStr">
         <is>
@@ -7867,40 +7867,40 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2525</v>
+        <v>2091</v>
       </c>
       <c r="B87" t="n">
-        <v>2560</v>
+        <v>2159</v>
       </c>
       <c r="C87" t="n">
-        <v>2649</v>
+        <v>2248</v>
       </c>
       <c r="D87" t="n">
-        <v>6.231880479382916</v>
+        <v>2.51588249288962</v>
       </c>
       <c r="E87" t="n">
-        <v>5.825542137997648</v>
+        <v>1.999337600735816</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.4063383413852688</v>
+        <v>-0.5165448921538039</v>
       </c>
       <c r="G87" t="n">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="H87" t="n">
-        <v>59.96229132726558</v>
+        <v>82.02788456167264</v>
       </c>
       <c r="I87" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="J87" t="n">
         <v>89</v>
       </c>
       <c r="K87" t="n">
-        <v>480.8671988938405</v>
+        <v>280.901606268977</v>
       </c>
       <c r="L87" t="n">
-        <v>36.53156358613368</v>
+        <v>5.224025531051804</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -7916,24 +7916,24 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.8447044928929865</v>
+        <v>0.629617159535011</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.3932584269662922</v>
+        <v>0.7640449438202247</v>
       </c>
       <c r="R87" t="n">
-        <v>0.149806222210081</v>
+        <v>0.2370479604717664</v>
       </c>
       <c r="S87" t="n">
-        <v>0.9801634332823269</v>
+        <v>0.913721695668847</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>n48</t>
+          <t>n46</t>
         </is>
       </c>
       <c r="U87" t="n">
-        <v>1353</v>
+        <v>1414</v>
       </c>
       <c r="V87" t="inlineStr">
         <is>
@@ -7953,40 +7953,40 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>635</v>
+        <v>2458</v>
       </c>
       <c r="B88" t="n">
-        <v>670</v>
+        <v>2501</v>
       </c>
       <c r="C88" t="n">
-        <v>760</v>
+        <v>2649</v>
       </c>
       <c r="D88" t="n">
-        <v>1.097700405387723</v>
+        <v>2.594962425525441</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6089768979608785</v>
+        <v>2.078417533371637</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.4887235074268447</v>
+        <v>-0.5165448921538039</v>
       </c>
       <c r="G88" t="n">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="H88" t="n">
-        <v>58.61269088718382</v>
+        <v>38.14303050276339</v>
       </c>
       <c r="I88" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J88" t="n">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="K88" t="n">
-        <v>92.93920678096713</v>
+        <v>305.3737714124389</v>
       </c>
       <c r="L88" t="n">
-        <v>5.126792130226379</v>
+        <v>5.388228584354546</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -8002,24 +8002,24 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.8620816792334332</v>
+        <v>0.8372549817238379</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.2905405405405405</v>
       </c>
       <c r="R88" t="n">
-        <v>0.2063867884879165</v>
+        <v>0.2610174095644563</v>
       </c>
       <c r="S88" t="n">
-        <v>0.8015545348629609</v>
+        <v>0.7003935672435001</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>n51</t>
+          <t>n46</t>
         </is>
       </c>
       <c r="U88" t="n">
-        <v>1354</v>
+        <v>1415</v>
       </c>
       <c r="V88" t="inlineStr">
         <is>
@@ -8039,40 +8039,40 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1931</v>
+        <v>2023</v>
       </c>
       <c r="B89" t="n">
-        <v>1959</v>
+        <v>2124</v>
       </c>
       <c r="C89" t="n">
-        <v>2012</v>
+        <v>2264</v>
       </c>
       <c r="D89" t="n">
-        <v>1.078942335029233</v>
+        <v>3.228937716462808</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5902188276023884</v>
+        <v>2.81890117824452</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.4887235074268447</v>
+        <v>-0.4100365382182886</v>
       </c>
       <c r="G89" t="n">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="H89" t="n">
-        <v>61.90573420191936</v>
+        <v>58.29116788782903</v>
       </c>
       <c r="I89" t="n">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="J89" t="n">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="K89" t="n">
-        <v>47.99495304408046</v>
+        <v>234.4007886801792</v>
       </c>
       <c r="L89" t="n">
-        <v>5.039182863599415</v>
+        <v>9.589319316554715</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8088,24 +8088,24 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.6862092564421016</v>
+        <v>0.5697175411084073</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.5283018867924528</v>
+        <v>0.7214285714285714</v>
       </c>
       <c r="R89" t="n">
-        <v>0.09852908240535063</v>
+        <v>0.7933117557000271</v>
       </c>
       <c r="S89" t="n">
-        <v>0.8549001712257217</v>
+        <v>0.8797714644587761</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>n51</t>
+          <t>n47</t>
         </is>
       </c>
       <c r="U89" t="n">
-        <v>1355</v>
+        <v>1416</v>
       </c>
       <c r="V89" t="inlineStr">
         <is>
@@ -8125,40 +8125,40 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>88</v>
+        <v>2398</v>
       </c>
       <c r="B90" t="n">
-        <v>115</v>
+        <v>2429</v>
       </c>
       <c r="C90" t="n">
-        <v>192</v>
+        <v>2649</v>
       </c>
       <c r="D90" t="n">
-        <v>1.283781691752331</v>
+        <v>5.41417625580461</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5851678927391498</v>
+        <v>5.004139717586321</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6986137990131813</v>
+        <v>-0.4100365382182886</v>
       </c>
       <c r="G90" t="n">
-        <v>104</v>
+        <v>251</v>
       </c>
       <c r="H90" t="n">
-        <v>50.00636072592297</v>
+        <v>58.93361913251374</v>
       </c>
       <c r="I90" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J90" t="n">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="K90" t="n">
-        <v>86.32073091426761</v>
+        <v>433.8862009673267</v>
       </c>
       <c r="L90" t="n">
-        <v>4.400452475218414</v>
+        <v>16.07905432437196</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -8174,24 +8174,24 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.8383221157830336</v>
+        <v>0.7748126179489729</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.3506493506493507</v>
+        <v>0.1409090909090909</v>
       </c>
       <c r="R90" t="n">
-        <v>0.1338573494997996</v>
+        <v>0.5424534499797329</v>
       </c>
       <c r="S90" t="n">
-        <v>0.9241172195977152</v>
+        <v>0.6186096633906836</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>n52</t>
+          <t>n47</t>
         </is>
       </c>
       <c r="U90" t="n">
-        <v>1356</v>
+        <v>1417</v>
       </c>
       <c r="V90" t="inlineStr">
         <is>
@@ -8211,40 +8211,40 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>323</v>
+        <v>2525</v>
       </c>
       <c r="B91" t="n">
-        <v>349</v>
+        <v>2560</v>
       </c>
       <c r="C91" t="n">
-        <v>442</v>
+        <v>2649</v>
       </c>
       <c r="D91" t="n">
-        <v>3.843137092577212</v>
+        <v>6.231880479382916</v>
       </c>
       <c r="E91" t="n">
-        <v>3.14452329356403</v>
+        <v>5.825542137997648</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6986137990131813</v>
+        <v>-0.4063383413852688</v>
       </c>
       <c r="G91" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H91" t="n">
-        <v>165.040254873509</v>
+        <v>59.96229132726558</v>
       </c>
       <c r="I91" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J91" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K91" t="n">
-        <v>295.6579792400485</v>
+        <v>480.8671988938405</v>
       </c>
       <c r="L91" t="n">
-        <v>13.17322270623071</v>
+        <v>36.53156358613368</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -8260,24 +8260,24 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.9085811686853953</v>
+        <v>0.8447044928929865</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.2795698924731183</v>
+        <v>0.3932584269662922</v>
       </c>
       <c r="R91" t="n">
-        <v>0.3107224076711002</v>
+        <v>0.149806222210081</v>
       </c>
       <c r="S91" t="n">
-        <v>0.9455181349570544</v>
+        <v>0.9801634332823269</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>n52</t>
+          <t>n48</t>
         </is>
       </c>
       <c r="U91" t="n">
-        <v>1357</v>
+        <v>1418</v>
       </c>
       <c r="V91" t="inlineStr">
         <is>
@@ -8297,40 +8297,40 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>442</v>
+        <v>635</v>
       </c>
       <c r="B92" t="n">
-        <v>469</v>
+        <v>670</v>
       </c>
       <c r="C92" t="n">
-        <v>530</v>
+        <v>760</v>
       </c>
       <c r="D92" t="n">
-        <v>1.504135310314361</v>
+        <v>1.097700405387723</v>
       </c>
       <c r="E92" t="n">
-        <v>0.8055215113011793</v>
+        <v>0.6089768979608785</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6986137990131813</v>
+        <v>-0.4887235074268447</v>
       </c>
       <c r="G92" t="n">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="H92" t="n">
-        <v>24.82720387423274</v>
+        <v>58.61269088718382</v>
       </c>
       <c r="I92" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J92" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="K92" t="n">
-        <v>92.6634738327711</v>
+        <v>92.93920678096713</v>
       </c>
       <c r="L92" t="n">
-        <v>5.155764404383769</v>
+        <v>5.126792130226379</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8346,24 +8346,24 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.8443331896412367</v>
+        <v>0.8620816792334332</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.4426229508196721</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="R92" t="n">
-        <v>0.2726605199009944</v>
+        <v>0.2063867884879165</v>
       </c>
       <c r="S92" t="n">
-        <v>0.8682161166696076</v>
+        <v>0.8015545348629609</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>n52</t>
+          <t>n51</t>
         </is>
       </c>
       <c r="U92" t="n">
-        <v>1358</v>
+        <v>1419</v>
       </c>
       <c r="V92" t="inlineStr">
         <is>
@@ -8383,40 +8383,40 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2238</v>
+        <v>1931</v>
       </c>
       <c r="B93" t="n">
-        <v>2270</v>
+        <v>1959</v>
       </c>
       <c r="C93" t="n">
-        <v>2345</v>
+        <v>2012</v>
       </c>
       <c r="D93" t="n">
-        <v>2.070224423401256</v>
+        <v>1.078942335029233</v>
       </c>
       <c r="E93" t="n">
-        <v>1.371610624388074</v>
+        <v>0.5902188276023884</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6986137990131813</v>
+        <v>-0.4887235074268447</v>
       </c>
       <c r="G93" t="n">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H93" t="n">
-        <v>36.72405762872404</v>
+        <v>61.90573420191936</v>
       </c>
       <c r="I93" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J93" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="K93" t="n">
-        <v>135.2561733866224</v>
+        <v>47.99495304408046</v>
       </c>
       <c r="L93" t="n">
-        <v>7.096163036706685</v>
+        <v>5.039182863599415</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -8432,24 +8432,24 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.8375644833672942</v>
+        <v>0.6862092564421016</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.4266666666666667</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="R93" t="n">
-        <v>0.1541628739967975</v>
+        <v>0.09852908240535063</v>
       </c>
       <c r="S93" t="n">
-        <v>0.943033047622739</v>
+        <v>0.8549001712257217</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>n52</t>
+          <t>n51</t>
         </is>
       </c>
       <c r="U93" t="n">
-        <v>1359</v>
+        <v>1420</v>
       </c>
       <c r="V93" t="inlineStr">
         <is>
@@ -8469,40 +8469,40 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1522</v>
+        <v>88</v>
       </c>
       <c r="B94" t="n">
-        <v>1537</v>
+        <v>115</v>
       </c>
       <c r="C94" t="n">
-        <v>1559</v>
+        <v>192</v>
       </c>
       <c r="D94" t="n">
-        <v>2.43659327081373</v>
+        <v>1.283781691752331</v>
       </c>
       <c r="E94" t="n">
-        <v>1.937579021894267</v>
+        <v>0.5851678927391498</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4990142489194627</v>
+        <v>-0.6986137990131813</v>
       </c>
       <c r="G94" t="n">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="H94" t="n">
-        <v>16.75364358822844</v>
+        <v>50.00636072592297</v>
       </c>
       <c r="I94" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J94" t="n">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="K94" t="n">
-        <v>74.77839304551942</v>
+        <v>86.32073091426761</v>
       </c>
       <c r="L94" t="n">
-        <v>8.256583318313201</v>
+        <v>4.400452475218414</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -8518,24 +8518,24 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.6670611574273703</v>
+        <v>0.8383221157830336</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="R94" t="n">
-        <v>0.06566238306257807</v>
+        <v>0.1338573494997996</v>
       </c>
       <c r="S94" t="n">
-        <v>0.9323894374155176</v>
+        <v>0.9241172195977152</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>n53</t>
+          <t>n52</t>
         </is>
       </c>
       <c r="U94" t="n">
-        <v>1360</v>
+        <v>1421</v>
       </c>
       <c r="V94" t="inlineStr">
         <is>
@@ -8555,85 +8555,515 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
+        <v>323</v>
+      </c>
+      <c r="B95" t="n">
+        <v>349</v>
+      </c>
+      <c r="C95" t="n">
+        <v>442</v>
+      </c>
+      <c r="D95" t="n">
+        <v>3.843137092577212</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3.14452329356403</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.6986137990131813</v>
+      </c>
+      <c r="G95" t="n">
+        <v>119</v>
+      </c>
+      <c r="H95" t="n">
+        <v>165.040254873509</v>
+      </c>
+      <c r="I95" t="n">
+        <v>26</v>
+      </c>
+      <c r="J95" t="n">
+        <v>93</v>
+      </c>
+      <c r="K95" t="n">
+        <v>295.6579792400485</v>
+      </c>
+      <c r="L95" t="n">
+        <v>13.17322270623071</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>0.9085811686853953</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.2795698924731183</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.3107224076711002</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.9455181349570544</v>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>n52</t>
+        </is>
+      </c>
+      <c r="U95" t="n">
+        <v>1422</v>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>442</v>
+      </c>
+      <c r="B96" t="n">
+        <v>469</v>
+      </c>
+      <c r="C96" t="n">
+        <v>530</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.504135310314361</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.8055215113011793</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.6986137990131813</v>
+      </c>
+      <c r="G96" t="n">
+        <v>88</v>
+      </c>
+      <c r="H96" t="n">
+        <v>24.82720387423274</v>
+      </c>
+      <c r="I96" t="n">
+        <v>27</v>
+      </c>
+      <c r="J96" t="n">
+        <v>61</v>
+      </c>
+      <c r="K96" t="n">
+        <v>92.6634738327711</v>
+      </c>
+      <c r="L96" t="n">
+        <v>5.155764404383769</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>0.8443331896412367</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.4426229508196721</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.2726605199009944</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.8682161166696076</v>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>n52</t>
+        </is>
+      </c>
+      <c r="U96" t="n">
+        <v>1423</v>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2149</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2172</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2238</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.942528366472929</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.243914567459747</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.6986137990131813</v>
+      </c>
+      <c r="G97" t="n">
+        <v>89</v>
+      </c>
+      <c r="H97" t="n">
+        <v>88.30743210648916</v>
+      </c>
+      <c r="I97" t="n">
+        <v>23</v>
+      </c>
+      <c r="J97" t="n">
+        <v>66</v>
+      </c>
+      <c r="K97" t="n">
+        <v>120.6661934435473</v>
+      </c>
+      <c r="L97" t="n">
+        <v>6.65845588338307</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>0.8768748653147224</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.3484848484848485</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.3002995022492143</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.9276069622322582</v>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>n52</t>
+        </is>
+      </c>
+      <c r="U97" t="n">
+        <v>1424</v>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2238</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2270</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2345</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2.070224423401256</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.371610624388074</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.6986137990131813</v>
+      </c>
+      <c r="G98" t="n">
+        <v>107</v>
+      </c>
+      <c r="H98" t="n">
+        <v>36.72405762872404</v>
+      </c>
+      <c r="I98" t="n">
+        <v>32</v>
+      </c>
+      <c r="J98" t="n">
+        <v>75</v>
+      </c>
+      <c r="K98" t="n">
+        <v>135.2561733866224</v>
+      </c>
+      <c r="L98" t="n">
+        <v>7.096163036706685</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>0.8375644833672942</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.4266666666666667</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.1541628739967975</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.943033047622739</v>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>n52</t>
+        </is>
+      </c>
+      <c r="U98" t="n">
+        <v>1425</v>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1522</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1537</v>
+      </c>
+      <c r="C99" t="n">
         <v>1559</v>
       </c>
-      <c r="B95" t="n">
+      <c r="D99" t="n">
+        <v>2.43659327081373</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.937579021894267</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.4990142489194627</v>
+      </c>
+      <c r="G99" t="n">
+        <v>37</v>
+      </c>
+      <c r="H99" t="n">
+        <v>16.75364358822844</v>
+      </c>
+      <c r="I99" t="n">
+        <v>15</v>
+      </c>
+      <c r="J99" t="n">
+        <v>22</v>
+      </c>
+      <c r="K99" t="n">
+        <v>74.77839304551942</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8.256583318313201</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>0.6670611574273703</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.06566238306257807</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.9323894374155176</v>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>n53</t>
+        </is>
+      </c>
+      <c r="U99" t="n">
+        <v>1426</v>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1559</v>
+      </c>
+      <c r="B100" t="n">
         <v>1576</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C100" t="n">
         <v>1599</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D100" t="n">
         <v>1.980855028159443</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E100" t="n">
         <v>1.48184077923998</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F100" t="n">
         <v>-0.4990142489194627</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G100" t="n">
         <v>40</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H100" t="n">
         <v>18.85946725862777</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I100" t="n">
         <v>17</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J100" t="n">
         <v>23</v>
       </c>
-      <c r="K95" t="n">
+      <c r="K100" t="n">
         <v>61.12446440012981</v>
       </c>
-      <c r="L95" t="n">
+      <c r="L100" t="n">
         <v>6.712279302994257</v>
       </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P95" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
         <v>0.7358927893793417</v>
       </c>
-      <c r="Q95" t="n">
+      <c r="Q100" t="n">
         <v>0.7391304347826086</v>
       </c>
-      <c r="R95" t="n">
+      <c r="R100" t="n">
         <v>0.1575194995134408</v>
       </c>
-      <c r="S95" t="n">
+      <c r="S100" t="n">
         <v>0.9481974535653305</v>
       </c>
-      <c r="T95" t="inlineStr">
+      <c r="T100" t="inlineStr">
         <is>
           <t>n53</t>
         </is>
       </c>
-      <c r="U95" t="n">
-        <v>1361</v>
-      </c>
-      <c r="V95" t="inlineStr">
-        <is>
-          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X95" t="inlineStr">
+      <c r="U100" t="n">
+        <v>1427</v>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930tangsuiCellVedio22024-12-04210940trace.xlsx</t>
         </is>
